--- a/III trimestre/Costos e identificacion/Costos.xlsx
+++ b/III trimestre/Costos e identificacion/Costos.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\USB 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F637CD6-F8B6-4679-9C97-EFCE807BC62C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Software" sheetId="3" r:id="rId1"/>
@@ -20,15 +19,15 @@
     <sheet name="Aproximados" sheetId="5" r:id="rId5"/>
     <sheet name="Riesgos" sheetId="9" r:id="rId6"/>
     <sheet name="Auxilios" sheetId="8" r:id="rId7"/>
-    <sheet name="Sueldo trabajadores " sheetId="6" r:id="rId8"/>
+    <sheet name="Sueldo de los trabajadores " sheetId="10" r:id="rId8"/>
     <sheet name="Costos totales" sheetId="7" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Hardware!$A$2:$A$7</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Hardware!$B$2:$B$7</definedName>
-    <definedName name="Sueldos">Tabla11[#All]</definedName>
+    <definedName name="Sueldos">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="98">
   <si>
     <t>Opciones</t>
   </si>
@@ -150,9 +149,6 @@
     <t>tiempo total trabajado en horas</t>
   </si>
   <si>
-    <t>sueldo por hora trabajada</t>
-  </si>
-  <si>
     <t>Costos totales</t>
   </si>
   <si>
@@ -165,19 +161,7 @@
     <t>Opción 2</t>
   </si>
   <si>
-    <t>Sueldo total por trabajadores</t>
-  </si>
-  <si>
     <t>Opción 1</t>
-  </si>
-  <si>
-    <t>Sueldo por trabajador semanal</t>
-  </si>
-  <si>
-    <t>Sueldo por trabajador mensual</t>
-  </si>
-  <si>
-    <t>Sueldo por trabajador anual</t>
   </si>
   <si>
     <t>Costo máximo</t>
@@ -207,19 +191,7 @@
     <t>cantidad de años trabajando</t>
   </si>
   <si>
-    <t>total, Hardware (costos de software incluidos)</t>
-  </si>
-  <si>
-    <t>Total, Sueldo Empleados</t>
-  </si>
-  <si>
-    <t>Hosting costo aproximado entre máximo y mínimo</t>
-  </si>
-  <si>
     <t>valor individual</t>
-  </si>
-  <si>
-    <t>inversión total</t>
   </si>
   <si>
     <t>De 1 a 2 equipos</t>
@@ -241,9 +213,6 @@
   </si>
   <si>
     <t>Gutiérrez Pintor</t>
-  </si>
-  <si>
-    <t>Total sueldos</t>
   </si>
   <si>
     <t>Tipo de auxilio</t>
@@ -318,15 +287,6 @@
     <t>SI</t>
   </si>
   <si>
-    <t>sueldo total por trabajadores con auxilios</t>
-  </si>
-  <si>
-    <t>Sueldo total de todos los empleados</t>
-  </si>
-  <si>
-    <t>Sueldo por trabajador diario</t>
-  </si>
-  <si>
     <t>costo máximo por equipo unidad</t>
   </si>
   <si>
@@ -347,16 +307,50 @@
   <si>
     <t>si</t>
   </si>
+  <si>
+    <t>Hosting costo aproximadoentre máximo y mínimo</t>
+  </si>
+  <si>
+    <t>Costo total del proyecto</t>
+  </si>
+  <si>
+    <t>total, Equipo(PC) ois</t>
+  </si>
+  <si>
+    <t>Inversion en la vida util de 3 años minimo</t>
+  </si>
+  <si>
+    <t>Sueldo unitario por hora sin auxilios</t>
+  </si>
+  <si>
+    <t>Sueldo unitario por dia sin auxilios</t>
+  </si>
+  <si>
+    <t>Suledo unitario por mes sin auxilios</t>
+  </si>
+  <si>
+    <t>Sueldo unitario de año sin auxilios</t>
+  </si>
+  <si>
+    <t>Sueldo unitario por año con auxilios</t>
+  </si>
+  <si>
+    <t>Suledo unitario por semana sin auxilios</t>
+  </si>
+  <si>
+    <t>TOTAL SUELDO DE TODOS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,6 +391,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -685,10 +686,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -699,7 +701,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -722,9 +723,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="8" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -746,27 +744,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="8" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="5" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -821,7 +803,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -831,11 +812,19 @@
     <xf numFmtId="164" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="93">
+  <dxfs count="96">
     <dxf>
       <font>
         <b/>
@@ -980,9 +969,20 @@
     <dxf>
       <font>
         <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -993,19 +993,25 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
       <font>
         <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1018,19 +1024,25 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
       <font>
         <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1043,19 +1055,25 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
       <font>
         <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1068,19 +1086,25 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
       <font>
         <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1093,246 +1117,25 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
       <font>
         <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1351,9 +1154,16 @@
       <font>
         <b/>
       </font>
-    </dxf>
-    <dxf>
-      <border>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1363,7 +1173,242 @@
       <font>
         <b/>
       </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1372,12 +1417,6 @@
         </right>
         <top/>
         <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -2297,6 +2336,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2322,7 +2362,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2348,6 +2388,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3132-4D52-A0B8-3D3E1B37E9E1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2363,6 +2408,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-3132-4D52-A0B8-3D3E1B37E9E1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2378,6 +2428,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-3132-4D52-A0B8-3D3E1B37E9E1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -2393,6 +2448,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-3132-4D52-A0B8-3D3E1B37E9E1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -2408,6 +2468,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-3132-4D52-A0B8-3D3E1B37E9E1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -2423,6 +2488,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-3132-4D52-A0B8-3D3E1B37E9E1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -2440,6 +2510,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-3132-4D52-A0B8-3D3E1B37E9E1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -2457,6 +2532,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-3132-4D52-A0B8-3D3E1B37E9E1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -2474,6 +2554,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-3132-4D52-A0B8-3D3E1B37E9E1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -2491,6 +2576,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-3132-4D52-A0B8-3D3E1B37E9E1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -2508,6 +2598,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-3132-4D52-A0B8-3D3E1B37E9E1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -2630,6 +2725,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2655,12 +2751,13 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2668,7 +2765,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2692,7 +2788,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2717,66 +2813,75 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:depthPercent val="100"/>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Aproximado Equipo OIS</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
-        <a:sp3d/>
       </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:bar3DChart>
-        <c:barDir val="bar"/>
+      <c:barChart>
+        <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Sueldo trabajadores '!$C$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sueldo por trabajador diario</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2785,153 +2890,103 @@
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-E02D-4533-8EAC-EF55FD6D2078}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-E02D-4533-8EAC-EF55FD6D2078}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-E02D-4533-8EAC-EF55FD6D2078}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Aproximados!$D$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>costo máximo hosting</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>costo mínimo hosting</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>costo aproximado hosting</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sueldo trabajadores '!$D$7</c:f>
+              <c:f>Aproximados!$D$2:$F$2</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>16170</c:v>
+                  <c:v>6552000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4131000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5341500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E929-478F-B1CB-4ED4936C9D07}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Sueldo trabajadores '!$E$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sueldo por trabajador semanal</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sueldo trabajadores '!$F$7</c:f>
-              <c:numCache>
-                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>48510</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E929-478F-B1CB-4ED4936C9D07}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Sueldo trabajadores '!$G$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sueldo por trabajador mensual</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sueldo trabajadores '!$H$7</c:f>
-              <c:numCache>
-                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>194040</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E929-478F-B1CB-4ED4936C9D07}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Sueldo trabajadores '!$I$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sueldo por trabajador anual</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sueldo trabajadores '!$J$7</c:f>
-              <c:numCache>
-                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2328480</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-E929-478F-B1CB-4ED4936C9D07}"/>
+              <c16:uniqueId val="{00000000-E02D-4533-8EAC-EF55FD6D2078}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2943,24 +2998,56 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:shape val="box"/>
-        <c:axId val="16294175"/>
-        <c:axId val="67951007"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1342090303"/>
+        <c:axId val="1132631679"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="16294175"/>
+        <c:axId val="1342090303"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="_-[$$-240A]\ * #.##000_-;\-[$$-240A]\ * #.##000_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67951007"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1132631679"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2968,12 +3055,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67951007"/>
+        <c:axId val="1132631679"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -3016,10 +3103,1385 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16294175"/>
+        <c:crossAx val="1342090303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sueldo de los trabajadores '!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sueldo unitario por hora sin auxilios</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Sueldo de los trabajadores '!$A$2:$A$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Sueldo de los trabajadores '!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TOTAL SUELDO DE TODOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Sueldo de los trabajadores '!$L$2:$L$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Sueldo de los trabajadores '!$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16170</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001E-7CB7-46EC-AD77-AD202FD87C5D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sueldo de los trabajadores '!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sueldo unitario por dia sin auxilios</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Sueldo de los trabajadores '!$A$2:$A$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Sueldo de los trabajadores '!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TOTAL SUELDO DE TODOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Sueldo de los trabajadores '!$M$2:$M$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Sueldo de los trabajadores '!$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>80850</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001F-7CB7-46EC-AD77-AD202FD87C5D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sueldo de los trabajadores '!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Suledo unitario por semana sin auxilios</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Sueldo de los trabajadores '!$A$2:$A$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Sueldo de los trabajadores '!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TOTAL SUELDO DE TODOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Sueldo de los trabajadores '!$N$2:$N$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Sueldo de los trabajadores '!$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>242550</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000020-7CB7-46EC-AD77-AD202FD87C5D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sueldo de los trabajadores '!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Suledo unitario por mes sin auxilios</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Sueldo de los trabajadores '!$A$2:$A$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Sueldo de los trabajadores '!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TOTAL SUELDO DE TODOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Sueldo de los trabajadores '!$O$2:$O$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Sueldo de los trabajadores '!$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>970200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000021-7CB7-46EC-AD77-AD202FD87C5D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sueldo de los trabajadores '!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sueldo unitario de año sin auxilios</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Sueldo de los trabajadores '!$A$2:$A$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Sueldo de los trabajadores '!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TOTAL SUELDO DE TODOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Sueldo de los trabajadores '!$P$2:$P$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Sueldo de los trabajadores '!$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>11642400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000022-7CB7-46EC-AD77-AD202FD87C5D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sueldo de los trabajadores '!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sueldo unitario por año con auxilios</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Sueldo de los trabajadores '!$A$2:$A$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Sueldo de los trabajadores '!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TOTAL SUELDO DE TODOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Sueldo de los trabajadores '!$Q$2:$Q$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Sueldo de los trabajadores '!$Q$7</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>12751237</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000023-7CB7-46EC-AD77-AD202FD87C5D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="196404815"/>
+        <c:axId val="196405647"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sueldo de los trabajadores '!$B$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>cantidad de sueldos</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'Sueldo de los trabajadores '!$A$2:$A$7</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'Sueldo de los trabajadores '!$A$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>TOTAL SUELDO DE TODOS</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'Sueldo de los trabajadores '!$B$2:$B$7</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'Sueldo de los trabajadores '!$B$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-7CB7-46EC-AD77-AD202FD87C5D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sueldo de los trabajadores '!$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>horas diarias aproximadas</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'Sueldo de los trabajadores '!$A$2:$A$7</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'Sueldo de los trabajadores '!$A$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>TOTAL SUELDO DE TODOS</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'Sueldo de los trabajadores '!$C$2:$C$7</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'Sueldo de los trabajadores '!$C$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-7CB7-46EC-AD77-AD202FD87C5D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sueldo de los trabajadores '!$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Días trabajados a la semana</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'Sueldo de los trabajadores '!$A$2:$A$7</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'Sueldo de los trabajadores '!$A$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>TOTAL SUELDO DE TODOS</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'Sueldo de los trabajadores '!$D$2:$D$7</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'Sueldo de los trabajadores '!$D$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-7CB7-46EC-AD77-AD202FD87C5D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sueldo de los trabajadores '!$E$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>horas totales a la semana</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'Sueldo de los trabajadores '!$A$2:$A$7</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'Sueldo de los trabajadores '!$A$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>TOTAL SUELDO DE TODOS</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'Sueldo de los trabajadores '!$E$2:$E$7</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'Sueldo de los trabajadores '!$E$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-7CB7-46EC-AD77-AD202FD87C5D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sueldo de los trabajadores '!$F$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Días en el mes trabajados</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'Sueldo de los trabajadores '!$A$2:$A$7</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'Sueldo de los trabajadores '!$A$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>TOTAL SUELDO DE TODOS</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'Sueldo de los trabajadores '!$F$2:$F$7</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'Sueldo de los trabajadores '!$F$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-7CB7-46EC-AD77-AD202FD87C5D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sueldo de los trabajadores '!$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>horas trabajadas al mes</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'Sueldo de los trabajadores '!$A$2:$A$7</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'Sueldo de los trabajadores '!$A$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>TOTAL SUELDO DE TODOS</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'Sueldo de los trabajadores '!$G$2:$G$7</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'Sueldo de los trabajadores '!$G$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-7CB7-46EC-AD77-AD202FD87C5D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sueldo de los trabajadores '!$H$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Días trabajados al año</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'Sueldo de los trabajadores '!$A$2:$A$7</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'Sueldo de los trabajadores '!$A$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>TOTAL SUELDO DE TODOS</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'Sueldo de los trabajadores '!$H$2:$H$7</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'Sueldo de los trabajadores '!$H$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000001A-7CB7-46EC-AD77-AD202FD87C5D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sueldo de los trabajadores '!$I$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>horas trabajadas al año</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'Sueldo de los trabajadores '!$A$2:$A$7</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'Sueldo de los trabajadores '!$A$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>TOTAL SUELDO DE TODOS</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'Sueldo de los trabajadores '!$I$2:$I$7</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'Sueldo de los trabajadores '!$I$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000001B-7CB7-46EC-AD77-AD202FD87C5D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sueldo de los trabajadores '!$J$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>cantidad de años trabajando</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'Sueldo de los trabajadores '!$A$2:$A$7</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'Sueldo de los trabajadores '!$A$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>TOTAL SUELDO DE TODOS</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'Sueldo de los trabajadores '!$J$2:$J$7</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'Sueldo de los trabajadores '!$J$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000001C-7CB7-46EC-AD77-AD202FD87C5D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sueldo de los trabajadores '!$K$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>tiempo total trabajado en horas</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'Sueldo de los trabajadores '!$A$2:$A$7</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'Sueldo de los trabajadores '!$A$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>TOTAL SUELDO DE TODOS</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'Sueldo de los trabajadores '!$K$2:$K$7</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'Sueldo de los trabajadores '!$K$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000001D-7CB7-46EC-AD77-AD202FD87C5D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="196404815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="196405647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="196405647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="196404815"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3033,6 +4495,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3058,19 +4521,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -3095,7 +4551,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3106,7 +4562,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -3151,6 +4607,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3176,7 +4633,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3244,13 +4701,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>total, Hardware (costos de software incluidos)</c:v>
+                  <c:v>total, Equipo(PC) ois</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Total, Sueldo Empleados</c:v>
+                  <c:v>Hosting costo aproximadoentre máximo y mínimo</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Hosting costo aproximado entre máximo y mínimo</c:v>
+                  <c:v>Costo total del proyecto</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3262,13 +4719,13 @@
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>16108721.300000001</c:v>
+                  <c:v>1964500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12751237</c:v>
+                  <c:v>5341500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5341500</c:v>
+                  <c:v>7306000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3333,7 +4790,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1389555807"/>
@@ -3392,7 +4849,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1341643231"/>
@@ -3433,7 +4890,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3459,6 +4916,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Costos Hardware</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3484,7 +4967,632 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hardware!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Portátil Lenovo
+Tarjeta madre
+Disco Duro 2T
+CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hardware!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Costo unitario</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hardware!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>999900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A6F5-491C-9A76-93B5CDC01250}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hardware!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mouse                                                                                              </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hardware!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Costo unitario</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hardware!$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A6F5-491C-9A76-93B5CDC01250}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hardware!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Regulador de voltaje</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hardware!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Costo unitario</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hardware!$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>36900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A6F5-491C-9A76-93B5CDC01250}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hardware!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>USB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hardware!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Costo unitario</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hardware!$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>19900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A6F5-491C-9A76-93B5CDC01250}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hardware!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Impresora CANNON </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hardware!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Costo unitario</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hardware!$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>149900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A6F5-491C-9A76-93B5CDC01250}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hardware!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Equpo Sistema OIS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hardware!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Costo unitario</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hardware!$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1962500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A6F5-491C-9A76-93B5CDC01250}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hardware!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hardware!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Costo unitario</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hardware!$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3202000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-A6F5-491C-9A76-93B5CDC01250}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1165283215"/>
+        <c:axId val="1165284463"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1165283215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1165284463"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1165284463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1165283215"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3671,7 +5779,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2115171455"/>
@@ -3730,7 +5838,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="6555903"/>
@@ -3747,6 +5855,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3772,7 +5881,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3802,7 +5911,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3813,7 +5922,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -3853,6 +5962,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3878,7 +5988,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4065,7 +6175,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1132656639"/>
@@ -4124,7 +6234,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1379391695"/>
@@ -4141,6 +6251,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4166,12 +6277,13 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4179,7 +6291,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4203,7 +6314,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4214,7 +6325,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -4254,6 +6365,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4279,7 +6391,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4413,6 +6525,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4438,7 +6551,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4468,7 +6581,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4479,7 +6592,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -4524,6 +6637,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4549,7 +6663,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4705,7 +6819,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1285442415"/>
@@ -4764,7 +6878,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1341714927"/>
@@ -4805,7 +6919,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4816,7 +6930,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -4861,6 +6975,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4886,7 +7001,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5043,7 +7158,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1285453231"/>
@@ -5102,7 +7217,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1284453199"/>
@@ -5143,7 +7258,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5154,7 +7269,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -5197,6 +7312,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5222,7 +7338,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5378,7 +7494,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1132643743"/>
@@ -5437,7 +7553,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1329100559"/>
@@ -5478,7 +7594,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5489,7 +7605,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -5529,6 +7645,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5554,7 +7671,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5688,6 +7805,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5713,7 +7831,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5743,7 +7861,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5752,486 +7870,6 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Aproximado Equipo OIS</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-E02D-4533-8EAC-EF55FD6D2078}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-E02D-4533-8EAC-EF55FD6D2078}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-E02D-4533-8EAC-EF55FD6D2078}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Aproximados!$D$1:$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>costo máximo hosting</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>costo mínimo hosting</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>costo aproximado hosting</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Aproximados!$D$2:$F$2</c:f>
-              <c:numCache>
-                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>6552000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4131000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5341500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E02D-4533-8EAC-EF55FD6D2078}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1342090303"/>
-        <c:axId val="1132631679"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1342090303"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1132631679"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1132631679"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1342090303"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>Costos Hardware</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            </a:rPr>
-            <a:t>Costos Hardware</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{4BE443C8-9A0F-4859-98D2-C724A1CD41F8}">
-          <cx:dataPt idx="0">
-            <cx:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ED7D31"/>
-              </a:solidFill>
-            </cx:spPr>
-          </cx:dataPt>
-          <cx:dataPt idx="1">
-            <cx:spPr>
-              <a:solidFill>
-                <a:srgbClr val="70AD47"/>
-              </a:solidFill>
-            </cx:spPr>
-          </cx:dataPt>
-          <cx:dataPt idx="2">
-            <cx:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-            </cx:spPr>
-          </cx:dataPt>
-          <cx:dataPt idx="3">
-            <cx:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </cx:spPr>
-          </cx:dataPt>
-          <cx:dataPt idx="4">
-            <cx:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-            </cx:spPr>
-          </cx:dataPt>
-          <cx:dataPt idx="5">
-            <cx:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-            </cx:spPr>
-          </cx:dataPt>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:aggregation/>
-          </cx:layoutPr>
-          <cx:axisId val="1"/>
-        </cx:series>
-        <cx:series layoutId="paretoLine" ownerIdx="0" uniqueId="{48760600-F5F1-4E39-B3BB-590F8EFD5C78}">
-          <cx:spPr>
-            <a:ln cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:alpha val="0"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </cx:spPr>
-          <cx:axisId val="2"/>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="0"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="2">
-        <cx:valScaling max="1" min="0"/>
-        <cx:units unit="percentage"/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-  </cx:chart>
-</cx:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7737,7 +9375,7 @@
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7760,6 +9398,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -8734,7 +10383,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8745,7 +10394,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -8768,7 +10417,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -8791,7 +10440,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -8799,11 +10448,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -8828,46 +10477,36 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -8882,8 +10521,10 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -8891,12 +10532,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -8906,13 +10544,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -8931,16 +10569,18 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
@@ -9011,6 +10651,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -9042,8 +10688,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9098,7 +10744,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
   <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -9126,18 +10772,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
     <cs:lnRef idx="0"/>
@@ -9147,9 +10782,12 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -9165,7 +10803,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -9181,7 +10819,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -9195,7 +10833,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -9228,7 +10866,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -9237,6 +10875,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -12870,79 +14514,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>109087</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>58586</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>10693</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="4" name="Gráfico 3">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABE92001-F410-4824-99BB-9A0C144683D6}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4614412" y="0"/>
-              <a:ext cx="6807499" cy="3325393"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="es-CO" sz="1100"/>
-                <a:t>Este gráfico no está disponible en su versión de Excel.
-Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -13256,25 +14852,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>915865</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>176772</xdr:rowOff>
+      <xdr:colOff>58015</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>75333</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1111249</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>183173</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>51954</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Gráfico 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5CEFD87-F790-4AEE-9836-4BEB74B0AE5A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -13334,13 +14924,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla9" displayName="Tabla9" ref="A1:D13" totalsRowShown="0" headerRowDxfId="92" headerRowBorderDxfId="91" tableBorderDxfId="90" totalsRowBorderDxfId="89">
-  <autoFilter ref="A1:D13" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="A1:D13" totalsRowShown="0" headerRowDxfId="95" headerRowBorderDxfId="94" tableBorderDxfId="93" totalsRowBorderDxfId="92">
+  <autoFilter ref="A1:D13"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Software utilizado a lo largo de la formación SENA" dataDxfId="88"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Costo unitario" dataDxfId="87"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Tiempo de uso meses Aproximado" dataDxfId="86"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Costo Total" dataDxfId="85">
+    <tableColumn id="1" name="Software utilizado a lo largo de la formación SENA" dataDxfId="91"/>
+    <tableColumn id="2" name="Costo unitario" dataDxfId="90"/>
+    <tableColumn id="3" name="Tiempo de uso meses Aproximado" dataDxfId="89"/>
+    <tableColumn id="4" name="Costo Total" dataDxfId="88">
       <calculatedColumnFormula>Tabla9[[#This Row],[Costo unitario]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13349,13 +14939,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabla10" displayName="Tabla10" ref="A1:D8" totalsRowShown="0" headerRowDxfId="84" dataDxfId="82" headerRowBorderDxfId="83" tableBorderDxfId="81" totalsRowBorderDxfId="80">
-  <autoFilter ref="A1:D8" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabla10" displayName="Tabla10" ref="A1:D8" totalsRowShown="0" headerRowDxfId="87" dataDxfId="85" headerRowBorderDxfId="86" tableBorderDxfId="84" totalsRowBorderDxfId="83">
+  <autoFilter ref="A1:D8"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Materiales utilizados" dataDxfId="79"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Costo unitario" dataDxfId="78"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Cantidad" dataDxfId="77"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Costo total" dataDxfId="76">
+    <tableColumn id="1" name="Materiales utilizados" dataDxfId="82"/>
+    <tableColumn id="2" name="Costo unitario" dataDxfId="81"/>
+    <tableColumn id="3" name="Cantidad" dataDxfId="80"/>
+    <tableColumn id="4" name="Costo total" dataDxfId="79">
       <calculatedColumnFormula>Tabla10[[#This Row],[Costo unitario]]*Tabla10[[#This Row],[Cantidad]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13364,56 +14954,56 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:E3" totalsRowShown="0" headerRowDxfId="75" headerRowBorderDxfId="74" tableBorderDxfId="73" totalsRowBorderDxfId="72">
-  <autoFilter ref="A1:E3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:E3" totalsRowShown="0" headerRowDxfId="78" headerRowBorderDxfId="77" tableBorderDxfId="76" totalsRowBorderDxfId="75">
+  <autoFilter ref="A1:E3"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Opciones" dataDxfId="71"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Precio hosting cada 2 meses (costo unitario)" dataDxfId="70"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tiempo de vida en meses" dataDxfId="69"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Costo total" dataDxfId="68">
+    <tableColumn id="1" name="Opciones" dataDxfId="74"/>
+    <tableColumn id="2" name="Precio hosting cada 2 meses (costo unitario)" dataDxfId="73"/>
+    <tableColumn id="3" name="Tiempo de vida en meses" dataDxfId="72"/>
+    <tableColumn id="4" name="Costo total" dataDxfId="71">
       <calculatedColumnFormula>Tabla1[[#This Row],[Precio hosting cada 2 meses (costo unitario)]]*Tabla1[[#This Row],[Tiempo de vida en meses]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Tiempo de vida en años" dataDxfId="67"/>
+    <tableColumn id="5" name="Tiempo de vida en años" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla2" displayName="Tabla2" ref="A1:F3" totalsRowShown="0" headerRowDxfId="66" headerRowBorderDxfId="65" tableBorderDxfId="64" totalsRowBorderDxfId="63">
-  <autoFilter ref="A1:F3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:F3" totalsRowShown="0" headerRowDxfId="69" headerRowBorderDxfId="68" tableBorderDxfId="67" totalsRowBorderDxfId="66">
+  <autoFilter ref="A1:F3"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Opciones" dataDxfId="62"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Costo unitario" dataDxfId="61"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Cantidad Aproximada" dataDxfId="60"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Costo máximo" dataDxfId="59"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Costo mínimo" dataDxfId="58"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Agregados" dataDxfId="57"/>
+    <tableColumn id="1" name="Opciones" dataDxfId="65"/>
+    <tableColumn id="2" name="Costo unitario" dataDxfId="64"/>
+    <tableColumn id="3" name="Cantidad Aproximada" dataDxfId="63"/>
+    <tableColumn id="4" name="Costo máximo" dataDxfId="62"/>
+    <tableColumn id="5" name="Costo mínimo" dataDxfId="61"/>
+    <tableColumn id="6" name="Agregados" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla8" displayName="Tabla8" ref="A1:F3" totalsRowCount="1" headerRowDxfId="56" dataDxfId="55">
-  <autoFilter ref="A1:F2" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla8" displayName="Tabla8" ref="A1:F3" totalsRowCount="1" headerRowDxfId="59" dataDxfId="58">
+  <autoFilter ref="A1:F2"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="costo máximo por equipo unidad" dataDxfId="54" totalsRowDxfId="53">
+    <tableColumn id="1" name="costo máximo por equipo unidad" dataDxfId="57" totalsRowDxfId="56">
       <calculatedColumnFormula>Tabla2[[#This Row],[Costo mínimo]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="costo mínimo por equipo unidad" dataDxfId="52" totalsRowDxfId="51">
+    <tableColumn id="2" name="costo mínimo por equipo unidad" dataDxfId="55" totalsRowDxfId="54">
       <calculatedColumnFormula>'Equipo sistema OIS'!E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="costo aproximado equipo por unidad" dataDxfId="50" totalsRowDxfId="49">
+    <tableColumn id="3" name="costo aproximado equipo por unidad" dataDxfId="53" totalsRowDxfId="52">
       <calculatedColumnFormula>(Tabla8[[#This Row],[costo máximo por equipo unidad]]+Tabla8[[#This Row],[costo mínimo por equipo unidad]])/2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="costo máximo hosting" dataDxfId="48" totalsRowDxfId="47">
+    <tableColumn id="4" name="costo máximo hosting" dataDxfId="51" totalsRowDxfId="50">
       <calculatedColumnFormula>Hosting!D3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="costo mínimo hosting" dataDxfId="46" totalsRowDxfId="45">
+    <tableColumn id="5" name="costo mínimo hosting" dataDxfId="49" totalsRowDxfId="48">
       <calculatedColumnFormula>Tabla1[[#This Row],[Costo total]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="costo aproximado hosting" dataDxfId="44" totalsRowDxfId="43">
+    <tableColumn id="6" name="costo aproximado hosting" dataDxfId="47" totalsRowDxfId="46">
       <calculatedColumnFormula>(Tabla8[[#This Row],[costo máximo hosting]]+Tabla8[[#This Row],[costo mínimo hosting]])/2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13422,71 +15012,72 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabla3" displayName="Tabla3" ref="A1:B7" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
-  <autoFilter ref="A1:B7" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A1:B7" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+  <autoFilter ref="A1:B7"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="nivel de riesgo " dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="costo de riesgo" dataDxfId="39"/>
+    <tableColumn id="1" name="nivel de riesgo " dataDxfId="43"/>
+    <tableColumn id="2" name="costo de riesgo" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla4" displayName="Tabla4" ref="A1:E7" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
-  <autoFilter ref="A1:E7" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="A1:E7" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38" totalsRowBorderDxfId="37">
+  <autoFilter ref="A1:E7"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Tipo de auxilio" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Costos de auxilio por persona mensual" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Razones para resivir el auxilio" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Aplica al grupo" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Total auxio por persona al grupo" dataDxfId="29"/>
+    <tableColumn id="1" name="Tipo de auxilio" dataDxfId="36"/>
+    <tableColumn id="2" name="Costos de auxilio por persona mensual" dataDxfId="35"/>
+    <tableColumn id="3" name="Razones para resivir el auxilio" dataDxfId="34"/>
+    <tableColumn id="4" name="Aplica al grupo" dataDxfId="33"/>
+    <tableColumn id="5" name="Total auxio por persona al grupo" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabla11" displayName="Tabla11" ref="A1:N7" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
-  <autoFilter ref="A1:N7" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Trabajadores" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="cantidad de sueldos" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="horas diarias aproximadas" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Días trabajados a la semana" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="horas totales a la semana" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Días en el mes trabajados" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="horas trabajadas al mes" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0700-000008000000}" name="Días trabajados al año" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0700-000009000000}" name="horas trabajadas al año" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0700-00000A000000}" name="cantidad de años trabajando" dataDxfId="14"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0700-00000B000000}" name="tiempo total trabajado en horas" dataDxfId="13"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0700-00000C000000}" name="sueldo por hora trabajada" dataDxfId="12"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0700-00000D000000}" name="Sueldo total por trabajadores" dataDxfId="11"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0700-00000E000000}" name="sueldo total por trabajadores con auxilios" dataDxfId="10">
-      <calculatedColumnFormula>M2+Auxilios!E3</calculatedColumnFormula>
-    </tableColumn>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="A1:Q7" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27" dataCellStyle="Moneda">
+  <autoFilter ref="A1:Q7"/>
+  <tableColumns count="17">
+    <tableColumn id="1" name="Trabajadores" dataDxfId="26"/>
+    <tableColumn id="2" name="cantidad de sueldos" dataDxfId="25"/>
+    <tableColumn id="3" name="horas diarias aproximadas" dataDxfId="24"/>
+    <tableColumn id="4" name="Días trabajados a la semana" dataDxfId="23"/>
+    <tableColumn id="5" name="horas totales a la semana" dataDxfId="22"/>
+    <tableColumn id="6" name="Días en el mes trabajados" dataDxfId="21"/>
+    <tableColumn id="7" name="horas trabajadas al mes" dataDxfId="20"/>
+    <tableColumn id="8" name="Días trabajados al año" dataDxfId="19"/>
+    <tableColumn id="9" name="horas trabajadas al año" dataDxfId="18"/>
+    <tableColumn id="10" name="cantidad de años trabajando" dataDxfId="17"/>
+    <tableColumn id="11" name="tiempo total trabajado en horas" dataDxfId="16"/>
+    <tableColumn id="12" name="Sueldo unitario por hora sin auxilios" dataDxfId="15" dataCellStyle="Moneda"/>
+    <tableColumn id="13" name="Sueldo unitario por dia sin auxilios" dataDxfId="14" dataCellStyle="Moneda"/>
+    <tableColumn id="14" name="Suledo unitario por semana sin auxilios" dataDxfId="13" dataCellStyle="Moneda"/>
+    <tableColumn id="15" name="Suledo unitario por mes sin auxilios" dataDxfId="12" dataCellStyle="Moneda"/>
+    <tableColumn id="16" name="Sueldo unitario de año sin auxilios" dataDxfId="11" dataCellStyle="Moneda"/>
+    <tableColumn id="17" name="Sueldo unitario por año con auxilios" dataDxfId="10" dataCellStyle="Moneda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabla12" displayName="Tabla12" ref="A1:E2" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="A1:E2" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabla12" displayName="Tabla12" ref="A1:E2" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="A1:E2"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Costos totales" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="total, Hardware (costos de software incluidos)" dataDxfId="3">
-      <calculatedColumnFormula>Hardware!D8+Software!D13</calculatedColumnFormula>
+    <tableColumn id="1" name="Costos totales" dataDxfId="4"/>
+    <tableColumn id="2" name="total, Equipo(PC) ois" dataDxfId="3">
+      <calculatedColumnFormula>Tabla8[costo aproximado equipo por unidad]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Total, Sueldo Empleados" dataDxfId="2">
-      <calculatedColumnFormula>'Sueldo trabajadores '!N7</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Hosting costo aproximado entre máximo y mínimo" dataDxfId="1">
+    <tableColumn id="3" name="Hosting costo aproximadoentre máximo y mínimo" dataDxfId="2">
       <calculatedColumnFormula>Tabla8[[#This Row],[costo aproximado hosting]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="inversión total" dataDxfId="0">
-      <calculatedColumnFormula>SUM(Tabla12[[#This Row],[total, Hardware (costos de software incluidos)]:[Hosting costo aproximado entre máximo y mínimo]])</calculatedColumnFormula>
+    <tableColumn id="4" name="Costo total del proyecto" dataDxfId="1">
+      <calculatedColumnFormula>SUM(Tabla12[total, Equipo(PC) ois]+Tabla12[Hosting costo aproximadoentre máximo y mínimo])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Inversion en la vida util de 3 años minimo" dataDxfId="0">
+      <calculatedColumnFormula>(Tabla12[Costo total del proyecto])/3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -13789,11 +15380,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13805,170 +15396,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="22">
+      <c r="B2" s="51"/>
+      <c r="C2" s="20">
         <v>3</v>
       </c>
-      <c r="D2" s="46">
+      <c r="D2" s="38">
         <f>Tabla9[[#This Row],[Costo unitario]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="22">
+      <c r="B3" s="51"/>
+      <c r="C3" s="20">
         <v>3</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="38">
         <f>Tabla9[[#This Row],[Costo unitario]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="22">
+      <c r="B4" s="51"/>
+      <c r="C4" s="20">
         <v>9</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="38">
         <f>Tabla9[[#This Row],[Costo unitario]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="22">
+      <c r="B5" s="51"/>
+      <c r="C5" s="20">
         <v>13</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="38">
         <f>Tabla9[[#This Row],[Costo unitario]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="22">
+      <c r="B6" s="51"/>
+      <c r="C6" s="20">
         <v>12</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="38">
         <f>Tabla9[[#This Row],[Costo unitario]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="22">
+      <c r="B7" s="51"/>
+      <c r="C7" s="20">
         <v>13</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="38">
         <f>Tabla9[[#This Row],[Costo unitario]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="60">
+      <c r="B8" s="51">
         <v>1099999</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="20">
         <v>36</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="38">
         <f>Tabla9[[#This Row],[Costo unitario]]</f>
         <v>1099999</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="60">
+      <c r="B9" s="51">
         <v>8310822.2999999998</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="20">
         <v>13</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="38">
         <f>Tabla9[[#This Row],[Costo unitario]]</f>
         <v>8310822.2999999998</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" s="60">
+      <c r="A10" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="51">
         <v>357700</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="20">
         <v>36</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="38">
         <f>Tabla9[[#This Row],[Costo unitario]]</f>
         <v>357700</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="46">
+      <c r="A11" s="11"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="38">
         <f>Tabla9[[#This Row],[Costo unitario]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="46">
+      <c r="A12" s="11"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="38">
         <f>Tabla9[[#This Row],[Costo unitario]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="61">
+      <c r="B13" s="52">
         <f>SUM(B2:B12)</f>
         <v>9768521.3000000007</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="46">
+      <c r="C13" s="22"/>
+      <c r="D13" s="38">
         <f>SUM(D2:D12)</f>
         <v>9768521.3000000007</v>
       </c>
@@ -13984,11 +15575,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14016,13 +15607,13 @@
       <c r="A2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="16">
         <v>999900</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="17">
         <v>4</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="18">
         <f>Tabla10[[#This Row],[Costo unitario]]*Tabla10[[#This Row],[Cantidad]]</f>
         <v>3999600</v>
       </c>
@@ -14031,13 +15622,13 @@
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="19">
         <v>32900</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="20">
         <v>4</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="18">
         <f>Tabla10[[#This Row],[Costo unitario]]*Tabla10[[#This Row],[Cantidad]]</f>
         <v>131600</v>
       </c>
@@ -14046,13 +15637,13 @@
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="19">
         <v>36900</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="20">
         <v>1</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="18">
         <f>Tabla10[[#This Row],[Costo unitario]]*Tabla10[[#This Row],[Cantidad]]</f>
         <v>36900</v>
       </c>
@@ -14061,13 +15652,13 @@
       <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="19">
         <v>19900</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="20">
         <v>3</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="18">
         <f>Tabla10[[#This Row],[Costo unitario]]*Tabla10[[#This Row],[Cantidad]]</f>
         <v>59700</v>
       </c>
@@ -14076,13 +15667,13 @@
       <c r="A6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="19">
         <v>149900</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="20">
         <v>1</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="18">
         <f>Tabla10[[#This Row],[Costo unitario]]*Tabla10[[#This Row],[Cantidad]]</f>
         <v>149900</v>
       </c>
@@ -14091,13 +15682,13 @@
       <c r="A7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="19">
         <v>1962500</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="20">
         <v>1</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="18">
         <f>Tabla10[[#This Row],[Costo unitario]]*Tabla10[[#This Row],[Cantidad]]</f>
         <v>1962500</v>
       </c>
@@ -14106,14 +15697,17 @@
       <c r="A8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="21">
         <v>3202000</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="20">
+      <c r="C8" s="22"/>
+      <c r="D8" s="18">
         <f>SUM(D2:D7)</f>
         <v>6340200</v>
       </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14126,11 +15720,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14160,37 +15754,37 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="18">
+        <v>38</v>
+      </c>
+      <c r="B2" s="16">
         <v>114750</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="17">
         <v>36</v>
       </c>
-      <c r="D2" s="55">
+      <c r="D2" s="47">
         <f>Tabla1[[#This Row],[Precio hosting cada 2 meses (costo unitario)]]*Tabla1[[#This Row],[Tiempo de vida en meses]]</f>
         <v>4131000</v>
       </c>
-      <c r="E2" s="45">
+      <c r="E2" s="37">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="23">
+        <v>37</v>
+      </c>
+      <c r="B3" s="21">
         <v>182000</v>
       </c>
-      <c r="C3" s="56">
+      <c r="C3" s="48">
         <v>36</v>
       </c>
-      <c r="D3" s="55">
+      <c r="D3" s="47">
         <f>Tabla1[[#This Row],[Precio hosting cada 2 meses (costo unitario)]]*Tabla1[[#This Row],[Tiempo de vida en meses]]</f>
         <v>6552000</v>
       </c>
-      <c r="E3" s="57">
+      <c r="E3" s="49">
         <v>3</v>
       </c>
     </row>
@@ -14204,11 +15798,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14222,62 +15816,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="11" t="s">
+      <c r="D1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="47">
+      <c r="A2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="39">
         <v>3144000</v>
       </c>
-      <c r="C2" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="49">
+      <c r="C2" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="41">
         <v>6288000</v>
       </c>
-      <c r="E2" s="49">
+      <c r="E2" s="41">
         <v>3144000</v>
       </c>
-      <c r="F2" s="50" t="s">
-        <v>59</v>
+      <c r="F2" s="42" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="51">
+      <c r="A3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="43">
         <v>785000</v>
       </c>
-      <c r="C3" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="53">
+      <c r="C3" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="45">
         <v>3769998</v>
       </c>
-      <c r="E3" s="53">
+      <c r="E3" s="45">
         <v>785000</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="46">
         <v>1099999</v>
       </c>
     </row>
@@ -14291,10 +15885,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14307,55 +15903,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="59" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" s="59" t="s">
+      <c r="A1" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="50" t="s">
         <v>36</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="27">
+      <c r="A2" s="23">
         <f>Tabla2[[#This Row],[Costo mínimo]]</f>
         <v>3144000</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="23">
         <f>'Equipo sistema OIS'!E3</f>
         <v>785000</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="23">
         <f>(Tabla8[[#This Row],[costo máximo por equipo unidad]]+Tabla8[[#This Row],[costo mínimo por equipo unidad]])/2</f>
         <v>1964500</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="23">
         <f>Hosting!D3</f>
         <v>6552000</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="23">
         <f>Tabla1[[#This Row],[Costo total]]</f>
         <v>4131000</v>
       </c>
-      <c r="F2" s="27">
+      <c r="F2" s="23">
         <f>(Tabla8[[#This Row],[costo máximo hosting]]+Tabla8[[#This Row],[costo mínimo hosting]])/2</f>
         <v>5341500</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -14374,7 +15970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14388,58 +15984,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>72</v>
+      <c r="A1" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="36">
+      <c r="A2" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="28">
         <v>4323</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="36">
+      <c r="A3" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="28">
         <v>8646</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="36">
+      <c r="A4" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="28">
         <v>20173</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="36">
+      <c r="A5" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="28">
         <v>36023</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="36">
+      <c r="A6" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="28">
         <v>57637</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="36">
+      <c r="A7" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="28">
         <f>(B2+B3+B4+B5+B6)/5</f>
         <v>25360.400000000001</v>
       </c>
@@ -14454,11 +16050,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14471,107 +16067,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>68</v>
+      <c r="A1" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="36">
+        <v>59</v>
+      </c>
+      <c r="B2" s="28">
         <v>97032</v>
       </c>
-      <c r="C2" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" s="39">
+      <c r="C2" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="31">
         <f>Tabla4[[#This Row],[Costos de auxilio por persona mensual]]</f>
         <v>97032</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="28">
+        <v>103515</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="36">
-        <v>103515</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="39">
+      <c r="E3" s="31">
         <v>33125</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="36">
+        <v>70</v>
+      </c>
+      <c r="B4" s="28">
         <v>132499</v>
       </c>
-      <c r="C4" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="E4" s="39">
+      <c r="C4" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="31">
         <v>33125</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="36">
+        <v>71</v>
+      </c>
+      <c r="B5" s="28">
         <v>33125</v>
       </c>
-      <c r="C5" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="39">
+      <c r="C5" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="31">
         <f>B5</f>
         <v>33125</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="36">
+        <v>73</v>
+      </c>
+      <c r="B6" s="28">
         <f>Riesgos!B7</f>
         <v>25360.400000000001</v>
       </c>
-      <c r="C6" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="39">
+      <c r="C6" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="31">
         <f>B6</f>
         <v>25360.400000000001</v>
       </c>
@@ -14580,13 +16176,13 @@
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="33">
         <f>SUM(B2:B6)</f>
         <v>391531.4</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="43">
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35">
         <f>(E2+E3+E4+E5+E6)</f>
         <v>221767.4</v>
       </c>
@@ -14600,386 +16196,437 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:N8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection sqref="A1:N7"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" customWidth="1"/>
-    <col min="5" max="5" width="32.28515625" customWidth="1"/>
-    <col min="6" max="6" width="32" customWidth="1"/>
-    <col min="7" max="7" width="30.140625" customWidth="1"/>
-    <col min="8" max="8" width="28.42578125" customWidth="1"/>
-    <col min="9" max="9" width="30" customWidth="1"/>
-    <col min="10" max="10" width="34.42578125" customWidth="1"/>
-    <col min="11" max="11" width="43.28515625" customWidth="1"/>
-    <col min="12" max="12" width="32.42578125" customWidth="1"/>
-    <col min="13" max="13" width="33.7109375" customWidth="1"/>
-    <col min="14" max="14" width="36.28515625" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" customWidth="1"/>
+    <col min="10" max="10" width="28" customWidth="1"/>
+    <col min="11" max="11" width="31" customWidth="1"/>
+    <col min="12" max="12" width="34.85546875" customWidth="1"/>
+    <col min="13" max="13" width="33.5703125" customWidth="1"/>
+    <col min="14" max="14" width="37.7109375" customWidth="1"/>
+    <col min="15" max="15" width="34.5703125" customWidth="1"/>
+    <col min="16" max="16" width="33.42578125" customWidth="1"/>
+    <col min="17" max="17" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="D1" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="P1" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q1" s="25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" s="32" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="B2" s="30">
+        <v>1</v>
+      </c>
+      <c r="C2" s="30">
+        <v>5</v>
+      </c>
+      <c r="D2" s="30">
+        <v>3</v>
+      </c>
+      <c r="E2" s="30">
+        <f>Tabla5[[#This Row],[Días trabajados a la semana]]*Tabla5[[#This Row],[horas diarias aproximadas]]</f>
+        <v>15</v>
+      </c>
+      <c r="F2" s="30">
+        <v>12</v>
+      </c>
+      <c r="G2" s="30">
+        <f>Tabla5[[#This Row],[Días en el mes trabajados]]*Tabla5[[#This Row],[horas diarias aproximadas]]</f>
         <v>60</v>
       </c>
-      <c r="B2" s="26">
+      <c r="H2" s="30">
+        <v>144</v>
+      </c>
+      <c r="I2" s="30">
+        <f>Tabla5[[#This Row],[Días trabajados al año]]*Tabla5[[#This Row],[horas diarias aproximadas]]</f>
+        <v>720</v>
+      </c>
+      <c r="J2" s="30">
         <v>1</v>
       </c>
-      <c r="C2" s="26">
-        <v>5</v>
-      </c>
-      <c r="D2" s="26">
-        <v>3</v>
-      </c>
-      <c r="E2" s="26">
-        <f>Tabla11[[#This Row],[horas diarias aproximadas]]*Tabla11[[#This Row],[Días trabajados a la semana]]</f>
-        <v>15</v>
-      </c>
-      <c r="F2" s="26">
-        <v>12</v>
-      </c>
-      <c r="G2" s="26">
-        <f>Tabla11[[#This Row],[horas diarias aproximadas]]*Tabla11[[#This Row],[Días en el mes trabajados]]</f>
-        <v>60</v>
-      </c>
-      <c r="H2" s="26">
-        <v>144</v>
-      </c>
-      <c r="I2" s="26">
-        <f>Tabla11[[#This Row],[horas diarias aproximadas]]*Tabla11[[#This Row],[Días trabajados al año]]</f>
+      <c r="K2" s="30">
+        <f>Tabla5[[#This Row],[horas trabajadas al año]]*Tabla5[[#This Row],[cantidad de años trabajando]]</f>
         <v>720</v>
       </c>
-      <c r="J2" s="26">
-        <v>1</v>
-      </c>
-      <c r="K2" s="26">
-        <f>Tabla11[[#This Row],[horas trabajadas al año]]*Tabla11[[#This Row],[cantidad de años trabajando]]</f>
-        <v>720</v>
-      </c>
-      <c r="L2" s="27">
+      <c r="L2" s="55">
         <v>3234</v>
       </c>
-      <c r="M2" s="27">
-        <f>Tabla11[[#This Row],[sueldo por hora trabajada]]*Tabla11[[#This Row],[tiempo total trabajado en horas]]</f>
-        <v>2328480</v>
-      </c>
-      <c r="N2" s="33">
-        <f>M2+Auxilios!E7</f>
-        <v>2550247.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="26">
-        <v>1</v>
-      </c>
-      <c r="C3" s="26">
-        <v>5</v>
-      </c>
-      <c r="D3" s="26">
-        <v>3</v>
-      </c>
-      <c r="E3" s="26">
-        <f>Tabla11[[#This Row],[horas diarias aproximadas]]*Tabla11[[#This Row],[Días trabajados a la semana]]</f>
-        <v>15</v>
-      </c>
-      <c r="F3" s="26">
-        <v>12</v>
-      </c>
-      <c r="G3" s="26">
-        <f>Tabla11[[#This Row],[horas diarias aproximadas]]*Tabla11[[#This Row],[Días en el mes trabajados]]</f>
-        <v>60</v>
-      </c>
-      <c r="H3" s="26">
-        <v>144</v>
-      </c>
-      <c r="I3" s="26">
-        <f>Tabla11[[#This Row],[horas diarias aproximadas]]*Tabla11[[#This Row],[Días trabajados al año]]</f>
-        <v>720</v>
-      </c>
-      <c r="J3" s="26">
-        <v>1</v>
-      </c>
-      <c r="K3" s="26">
-        <f>Tabla11[[#This Row],[horas trabajadas al año]]*Tabla11[[#This Row],[cantidad de años trabajando]]</f>
-        <v>720</v>
-      </c>
-      <c r="L3" s="27">
-        <v>3234</v>
-      </c>
-      <c r="M3" s="27">
-        <f>Tabla11[[#This Row],[sueldo por hora trabajada]]*Tabla11[[#This Row],[tiempo total trabajado en horas]]</f>
-        <v>2328480</v>
-      </c>
-      <c r="N3" s="33">
-        <f>M3+Auxilios!E7</f>
-        <v>2550247.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="26">
-        <v>1</v>
-      </c>
-      <c r="C4" s="26">
-        <v>5</v>
-      </c>
-      <c r="D4" s="26">
-        <v>3</v>
-      </c>
-      <c r="E4" s="26">
-        <f>Tabla11[[#This Row],[horas diarias aproximadas]]*Tabla11[[#This Row],[Días trabajados a la semana]]</f>
-        <v>15</v>
-      </c>
-      <c r="F4" s="26">
-        <v>12</v>
-      </c>
-      <c r="G4" s="26">
-        <f>Tabla11[[#This Row],[horas diarias aproximadas]]*Tabla11[[#This Row],[Días en el mes trabajados]]</f>
-        <v>60</v>
-      </c>
-      <c r="H4" s="26">
-        <v>144</v>
-      </c>
-      <c r="I4" s="26">
-        <f>Tabla11[[#This Row],[horas diarias aproximadas]]*Tabla11[[#This Row],[Días trabajados al año]]</f>
-        <v>720</v>
-      </c>
-      <c r="J4" s="26">
-        <v>1</v>
-      </c>
-      <c r="K4" s="26">
-        <f>Tabla11[[#This Row],[horas trabajadas al año]]*Tabla11[[#This Row],[cantidad de años trabajando]]</f>
-        <v>720</v>
-      </c>
-      <c r="L4" s="27">
-        <v>3234</v>
-      </c>
-      <c r="M4" s="27">
-        <f>Tabla11[[#This Row],[sueldo por hora trabajada]]*Tabla11[[#This Row],[tiempo total trabajado en horas]]</f>
-        <v>2328480</v>
-      </c>
-      <c r="N4" s="33">
-        <f>M4+Auxilios!E7</f>
-        <v>2550247.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="26">
-        <v>1</v>
-      </c>
-      <c r="C5" s="26">
-        <v>5</v>
-      </c>
-      <c r="D5" s="26">
-        <v>3</v>
-      </c>
-      <c r="E5" s="26">
-        <f>Tabla11[[#This Row],[horas diarias aproximadas]]*Tabla11[[#This Row],[Días trabajados a la semana]]</f>
-        <v>15</v>
-      </c>
-      <c r="F5" s="26">
-        <v>12</v>
-      </c>
-      <c r="G5" s="26">
-        <f>Tabla11[[#This Row],[horas diarias aproximadas]]*Tabla11[[#This Row],[Días en el mes trabajados]]</f>
-        <v>60</v>
-      </c>
-      <c r="H5" s="26">
-        <v>144</v>
-      </c>
-      <c r="I5" s="26">
-        <f>Tabla11[[#This Row],[horas diarias aproximadas]]*Tabla11[[#This Row],[Días trabajados al año]]</f>
-        <v>720</v>
-      </c>
-      <c r="J5" s="26">
-        <v>1</v>
-      </c>
-      <c r="K5" s="26">
-        <f>Tabla11[[#This Row],[horas trabajadas al año]]*Tabla11[[#This Row],[cantidad de años trabajando]]</f>
-        <v>720</v>
-      </c>
-      <c r="L5" s="27">
-        <v>3234</v>
-      </c>
-      <c r="M5" s="27">
-        <f>Tabla11[[#This Row],[sueldo por hora trabajada]]*Tabla11[[#This Row],[tiempo total trabajado en horas]]</f>
-        <v>2328480</v>
-      </c>
-      <c r="N5" s="33">
-        <f>M5+Auxilios!E7</f>
-        <v>2550247.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="26">
-        <v>1</v>
-      </c>
-      <c r="C6" s="26">
-        <v>5</v>
-      </c>
-      <c r="D6" s="26">
-        <v>3</v>
-      </c>
-      <c r="E6" s="26">
-        <f>Tabla11[[#This Row],[horas diarias aproximadas]]*Tabla11[[#This Row],[Días trabajados a la semana]]</f>
-        <v>15</v>
-      </c>
-      <c r="F6" s="26">
-        <v>12</v>
-      </c>
-      <c r="G6" s="26">
-        <f>Tabla11[[#This Row],[horas diarias aproximadas]]*Tabla11[[#This Row],[Días en el mes trabajados]]</f>
-        <v>60</v>
-      </c>
-      <c r="H6" s="26">
-        <v>144</v>
-      </c>
-      <c r="I6" s="26">
-        <f>Tabla11[[#This Row],[horas diarias aproximadas]]*Tabla11[[#This Row],[Días trabajados al año]]</f>
-        <v>720</v>
-      </c>
-      <c r="J6" s="26">
-        <v>1</v>
-      </c>
-      <c r="K6" s="26">
-        <f>Tabla11[[#This Row],[horas trabajadas al año]]*Tabla11[[#This Row],[cantidad de años trabajando]]</f>
-        <v>720</v>
-      </c>
-      <c r="L6" s="27">
-        <v>3234</v>
-      </c>
-      <c r="M6" s="27">
-        <f>Tabla11[[#This Row],[sueldo por hora trabajada]]*Tabla11[[#This Row],[tiempo total trabajado en horas]]</f>
-        <v>2328480</v>
-      </c>
-      <c r="N6" s="33">
-        <f>M6+Auxilios!E7</f>
-        <v>2550247.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="29">
-        <v>5</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="30">
+      <c r="M2" s="55">
         <f>L2*C2</f>
         <v>16170</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="30">
+      <c r="N2" s="55">
         <f>L2*E2</f>
         <v>48510</v>
       </c>
-      <c r="G7" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="30">
+      <c r="O2" s="55">
         <f>L2*G2</f>
         <v>194040</v>
       </c>
-      <c r="I7" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="30">
+      <c r="P2" s="55">
         <f>L2*I2</f>
         <v>2328480</v>
       </c>
-      <c r="K7" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="L7" s="30">
-        <f>SUM(L2:L6)</f>
+      <c r="Q2" s="56">
+        <f>P2+Auxilios!E7</f>
+        <v>2550247.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="30">
+        <v>1</v>
+      </c>
+      <c r="C3" s="30">
+        <v>5</v>
+      </c>
+      <c r="D3" s="30">
+        <v>3</v>
+      </c>
+      <c r="E3" s="30">
+        <f>Tabla5[[#This Row],[Días trabajados a la semana]]*Tabla5[[#This Row],[horas diarias aproximadas]]</f>
+        <v>15</v>
+      </c>
+      <c r="F3" s="30">
+        <v>12</v>
+      </c>
+      <c r="G3" s="30">
+        <f>Tabla5[[#This Row],[Días en el mes trabajados]]*Tabla5[[#This Row],[horas diarias aproximadas]]</f>
+        <v>60</v>
+      </c>
+      <c r="H3" s="30">
+        <v>144</v>
+      </c>
+      <c r="I3" s="30">
+        <f>Tabla5[[#This Row],[Días trabajados al año]]*Tabla5[[#This Row],[horas diarias aproximadas]]</f>
+        <v>720</v>
+      </c>
+      <c r="J3" s="30">
+        <v>1</v>
+      </c>
+      <c r="K3" s="30">
+        <f>Tabla5[[#This Row],[horas trabajadas al año]]*Tabla5[[#This Row],[cantidad de años trabajando]]</f>
+        <v>720</v>
+      </c>
+      <c r="L3" s="55">
+        <v>3234</v>
+      </c>
+      <c r="M3" s="55">
+        <f t="shared" ref="M3:M6" si="0">L3*C3</f>
         <v>16170</v>
       </c>
-      <c r="M7" s="30">
-        <f>SUM(M2:M6)</f>
+      <c r="N3" s="55">
+        <f t="shared" ref="N3:N6" si="1">L3*E3</f>
+        <v>48510</v>
+      </c>
+      <c r="O3" s="55">
+        <f t="shared" ref="O3:O6" si="2">L3*G3</f>
+        <v>194040</v>
+      </c>
+      <c r="P3" s="55">
+        <f t="shared" ref="P3:P6" si="3">L3*I3</f>
+        <v>2328480</v>
+      </c>
+      <c r="Q3" s="56">
+        <f>P3+Auxilios!E7</f>
+        <v>2550247.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="30">
+        <v>1</v>
+      </c>
+      <c r="C4" s="30">
+        <v>5</v>
+      </c>
+      <c r="D4" s="30">
+        <v>3</v>
+      </c>
+      <c r="E4" s="30">
+        <f>Tabla5[[#This Row],[Días trabajados a la semana]]*Tabla5[[#This Row],[horas diarias aproximadas]]</f>
+        <v>15</v>
+      </c>
+      <c r="F4" s="30">
+        <v>12</v>
+      </c>
+      <c r="G4" s="30">
+        <f>Tabla5[[#This Row],[Días en el mes trabajados]]*Tabla5[[#This Row],[horas diarias aproximadas]]</f>
+        <v>60</v>
+      </c>
+      <c r="H4" s="30">
+        <v>144</v>
+      </c>
+      <c r="I4" s="30">
+        <f>Tabla5[[#This Row],[Días trabajados al año]]*Tabla5[[#This Row],[horas diarias aproximadas]]</f>
+        <v>720</v>
+      </c>
+      <c r="J4" s="30">
+        <v>1</v>
+      </c>
+      <c r="K4" s="30">
+        <f>Tabla5[[#This Row],[horas trabajadas al año]]*Tabla5[[#This Row],[cantidad de años trabajando]]</f>
+        <v>720</v>
+      </c>
+      <c r="L4" s="55">
+        <v>3234</v>
+      </c>
+      <c r="M4" s="55">
+        <f t="shared" si="0"/>
+        <v>16170</v>
+      </c>
+      <c r="N4" s="55">
+        <f t="shared" si="1"/>
+        <v>48510</v>
+      </c>
+      <c r="O4" s="55">
+        <f t="shared" si="2"/>
+        <v>194040</v>
+      </c>
+      <c r="P4" s="55">
+        <f t="shared" si="3"/>
+        <v>2328480</v>
+      </c>
+      <c r="Q4" s="56">
+        <f>P4+Auxilios!E7</f>
+        <v>2550247.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="30">
+        <v>1</v>
+      </c>
+      <c r="C5" s="30">
+        <v>5</v>
+      </c>
+      <c r="D5" s="30">
+        <v>3</v>
+      </c>
+      <c r="E5" s="30">
+        <f>Tabla5[[#This Row],[Días trabajados a la semana]]*Tabla5[[#This Row],[horas diarias aproximadas]]</f>
+        <v>15</v>
+      </c>
+      <c r="F5" s="30">
+        <v>12</v>
+      </c>
+      <c r="G5" s="30">
+        <f>Tabla5[[#This Row],[Días en el mes trabajados]]*Tabla5[[#This Row],[horas diarias aproximadas]]</f>
+        <v>60</v>
+      </c>
+      <c r="H5" s="30">
+        <v>144</v>
+      </c>
+      <c r="I5" s="30">
+        <f>Tabla5[[#This Row],[Días trabajados al año]]*Tabla5[[#This Row],[horas diarias aproximadas]]</f>
+        <v>720</v>
+      </c>
+      <c r="J5" s="30">
+        <v>1</v>
+      </c>
+      <c r="K5" s="30">
+        <f>Tabla5[[#This Row],[horas trabajadas al año]]*Tabla5[[#This Row],[cantidad de años trabajando]]</f>
+        <v>720</v>
+      </c>
+      <c r="L5" s="55">
+        <v>3234</v>
+      </c>
+      <c r="M5" s="55">
+        <f t="shared" si="0"/>
+        <v>16170</v>
+      </c>
+      <c r="N5" s="55">
+        <f t="shared" si="1"/>
+        <v>48510</v>
+      </c>
+      <c r="O5" s="55">
+        <f t="shared" si="2"/>
+        <v>194040</v>
+      </c>
+      <c r="P5" s="55">
+        <f t="shared" si="3"/>
+        <v>2328480</v>
+      </c>
+      <c r="Q5" s="56">
+        <f>P5+Auxilios!E7</f>
+        <v>2550247.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="30">
+        <v>1</v>
+      </c>
+      <c r="C6" s="30">
+        <v>5</v>
+      </c>
+      <c r="D6" s="30">
+        <v>3</v>
+      </c>
+      <c r="E6" s="30">
+        <f>Tabla5[[#This Row],[Días trabajados a la semana]]*Tabla5[[#This Row],[horas diarias aproximadas]]</f>
+        <v>15</v>
+      </c>
+      <c r="F6" s="30">
+        <v>12</v>
+      </c>
+      <c r="G6" s="30">
+        <f>Tabla5[[#This Row],[Días en el mes trabajados]]*Tabla5[[#This Row],[horas diarias aproximadas]]</f>
+        <v>60</v>
+      </c>
+      <c r="H6" s="30">
+        <v>144</v>
+      </c>
+      <c r="I6" s="30">
+        <f>Tabla5[[#This Row],[Días trabajados al año]]*Tabla5[[#This Row],[horas diarias aproximadas]]</f>
+        <v>720</v>
+      </c>
+      <c r="J6" s="30">
+        <v>1</v>
+      </c>
+      <c r="K6" s="30">
+        <f>Tabla5[[#This Row],[horas trabajadas al año]]*Tabla5[[#This Row],[cantidad de años trabajando]]</f>
+        <v>720</v>
+      </c>
+      <c r="L6" s="55">
+        <v>3234</v>
+      </c>
+      <c r="M6" s="55">
+        <f t="shared" si="0"/>
+        <v>16170</v>
+      </c>
+      <c r="N6" s="55">
+        <f t="shared" si="1"/>
+        <v>48510</v>
+      </c>
+      <c r="O6" s="55">
+        <f t="shared" si="2"/>
+        <v>194040</v>
+      </c>
+      <c r="P6" s="55">
+        <f t="shared" si="3"/>
+        <v>2328480</v>
+      </c>
+      <c r="Q6" s="56">
+        <f>P6+Auxilios!E7</f>
+        <v>2550247.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="57">
+        <f t="shared" ref="L7:Q7" si="4">SUM(L2:L6)</f>
+        <v>16170</v>
+      </c>
+      <c r="M7" s="57">
+        <f t="shared" si="4"/>
+        <v>80850</v>
+      </c>
+      <c r="N7" s="57">
+        <f t="shared" si="4"/>
+        <v>242550</v>
+      </c>
+      <c r="O7" s="57">
+        <f t="shared" si="4"/>
+        <v>970200</v>
+      </c>
+      <c r="P7" s="57">
+        <f t="shared" si="4"/>
         <v>11642400</v>
       </c>
-      <c r="N7" s="58">
-        <f>N2+N3+N4+N5+N6</f>
+      <c r="Q7" s="58">
+        <f t="shared" si="4"/>
         <v>12751237</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
     </row>
   </sheetData>
-  <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -14990,58 +16637,58 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.140625" customWidth="1"/>
     <col min="2" max="2" width="43.140625" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
     <col min="4" max="4" width="47.5703125" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="39.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>57</v>
+      <c r="A1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="14">
-        <f>Hardware!D8+Software!D13</f>
-        <v>16108721.300000001</v>
-      </c>
-      <c r="C2" s="14">
-        <f>'Sueldo trabajadores '!N7</f>
-        <v>12751237</v>
-      </c>
-      <c r="D2" s="14">
+      <c r="A2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="13">
+        <f>Tabla8[costo aproximado equipo por unidad]</f>
+        <v>1964500</v>
+      </c>
+      <c r="C2" s="13">
         <f>Tabla8[[#This Row],[costo aproximado hosting]]</f>
         <v>5341500</v>
       </c>
-      <c r="E2" s="15">
-        <f>SUM(Tabla12[[#This Row],[total, Hardware (costos de software incluidos)]:[Hosting costo aproximado entre máximo y mínimo]])</f>
-        <v>34201458.299999997</v>
+      <c r="D2" s="13">
+        <f>SUM(Tabla12[total, Equipo(PC) ois]+Tabla12[Hosting costo aproximadoentre máximo y mínimo])</f>
+        <v>7306000</v>
+      </c>
+      <c r="E2" s="14">
+        <f>(Tabla12[Costo total del proyecto])/3</f>
+        <v>2435333.3333333335</v>
       </c>
     </row>
   </sheetData>

--- a/III trimestre/Costos e identificacion/Costos.xlsx
+++ b/III trimestre/Costos e identificacion/Costos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\Escritorio\costos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Software" sheetId="3" r:id="rId1"/>
@@ -23,8 +23,6 @@
     <sheet name="Costos totales" sheetId="7" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Hardware!$A$2:$A$7</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Hardware!$B$2:$B$7</definedName>
     <definedName name="Sueldos">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -302,9 +300,6 @@
     <t>Tiempo de uso meses Aproximado</t>
   </si>
   <si>
-    <t>Iternet LAN(ETB: 15Megas):$85900anuales X 3 añs</t>
-  </si>
-  <si>
     <t>si</t>
   </si>
   <si>
@@ -339,6 +334,9 @@
   </si>
   <si>
     <t>TOTAL SUELDO DE TODOS</t>
+  </si>
+  <si>
+    <t>Iternet LAN(ETB: 15Megas):$85900anuales X 3 años</t>
   </si>
 </sst>
 </file>
@@ -2362,7 +2360,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2641,7 +2639,7 @@
                   <c:v>Visual paradigm (licencia educativa sena)</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Iternet LAN(ETB: 15Megas):$85900anuales X 3 añs</c:v>
+                  <c:v>Iternet LAN(ETB: 15Megas):$85900anuales X 3 años</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2751,7 +2749,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2788,7 +2786,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2842,7 +2840,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2868,7 +2865,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3044,7 +3041,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1132631679"/>
@@ -3103,7 +3100,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1342090303"/>
@@ -3144,7 +3141,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4419,7 +4416,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="196405647"/>
@@ -4478,7 +4475,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="196404815"/>
@@ -4521,7 +4518,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4551,7 +4548,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4633,7 +4630,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4790,7 +4787,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1389555807"/>
@@ -4849,7 +4846,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1341643231"/>
@@ -4890,7 +4887,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4967,7 +4964,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5408,7 +5405,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1165284463"/>
@@ -5467,7 +5464,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1165283215"/>
@@ -5510,7 +5507,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5540,7 +5537,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5592,7 +5589,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5779,7 +5776,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2115171455"/>
@@ -5838,7 +5835,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="6555903"/>
@@ -5881,7 +5878,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5911,7 +5908,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5988,7 +5985,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6175,7 +6172,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1132656639"/>
@@ -6234,7 +6231,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1379391695"/>
@@ -6277,7 +6274,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6314,7 +6311,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6391,7 +6388,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6551,7 +6548,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6581,7 +6578,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6663,7 +6660,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6819,7 +6816,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1285442415"/>
@@ -6878,7 +6875,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1341714927"/>
@@ -6919,7 +6916,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7001,7 +6998,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7158,7 +7155,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1285453231"/>
@@ -7217,7 +7214,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1284453199"/>
@@ -7258,7 +7255,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7312,7 +7309,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7338,7 +7334,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7494,7 +7490,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1132643743"/>
@@ -7553,7 +7549,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1329100559"/>
@@ -7594,7 +7590,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7671,7 +7667,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7831,7 +7827,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7861,7 +7857,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -15384,7 +15380,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15519,7 +15515,7 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B10" s="51">
         <v>357700</v>
@@ -15578,8 +15574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16094,7 +16090,7 @@
         <v>74</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2" s="31">
         <f>Tabla4[[#This Row],[Costos de auxilio por persona mensual]]</f>
@@ -16199,8 +16195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="P1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="P16" activeCellId="1" sqref="Q6 P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16259,22 +16255,22 @@
         <v>33</v>
       </c>
       <c r="L1" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="N1" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="O1" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="N1" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="O1" s="27" t="s">
+      <c r="P1" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="Q1" s="25" t="s">
         <v>94</v>
-      </c>
-      <c r="Q1" s="25" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -16589,7 +16585,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B7" s="59"/>
       <c r="C7" s="59"/>
@@ -16640,7 +16636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -16658,16 +16654,16 @@
         <v>34</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">

--- a/III trimestre/Costos e identificacion/Costos.xlsx
+++ b/III trimestre/Costos e identificacion/Costos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\Escritorio\costos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\v\Costos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Software" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>Opciones</t>
   </si>
@@ -61,15 +61,6 @@
   </si>
   <si>
     <t>Agregados</t>
-  </si>
-  <si>
-    <t>NetBeans 8.2</t>
-  </si>
-  <si>
-    <t>jdk-8u201-windows-x64/32</t>
-  </si>
-  <si>
-    <t>Java(actualizado)</t>
   </si>
   <si>
     <t>Wampp/Xampp (MariaDB/MySql)</t>
@@ -99,31 +90,13 @@
     <t>Materiales utilizados</t>
   </si>
   <si>
-    <t>Mouse                                                                                              </t>
-  </si>
-  <si>
-    <t>Regulador de voltaje</t>
-  </si>
-  <si>
     <t>USB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impresora CANNON </t>
-  </si>
-  <si>
-    <t>Portátil Lenovo
-Tarjeta madre
-Disco Duro 2T
-CPU</t>
   </si>
   <si>
     <t>Cantidad</t>
   </si>
   <si>
     <t>total</t>
-  </si>
-  <si>
-    <t>Equpo Sistema OIS</t>
   </si>
   <si>
     <t>Trabajadores</t>
@@ -184,9 +157,6 @@
   </si>
   <si>
     <t>Días trabajados al año</t>
-  </si>
-  <si>
-    <t>cantidad de años trabajando</t>
   </si>
   <si>
     <t>valor individual</t>
@@ -303,25 +273,7 @@
     <t>si</t>
   </si>
   <si>
-    <t>Hosting costo aproximadoentre máximo y mínimo</t>
-  </si>
-  <si>
-    <t>Costo total del proyecto</t>
-  </si>
-  <si>
-    <t>total, Equipo(PC) ois</t>
-  </si>
-  <si>
-    <t>Inversion en la vida util de 3 años minimo</t>
-  </si>
-  <si>
     <t>Sueldo unitario por hora sin auxilios</t>
-  </si>
-  <si>
-    <t>Sueldo unitario por dia sin auxilios</t>
-  </si>
-  <si>
-    <t>Suledo unitario por mes sin auxilios</t>
   </si>
   <si>
     <t>Sueldo unitario de año sin auxilios</t>
@@ -330,13 +282,40 @@
     <t>Sueldo unitario por año con auxilios</t>
   </si>
   <si>
-    <t>Suledo unitario por semana sin auxilios</t>
-  </si>
-  <si>
     <t>TOTAL SUELDO DE TODOS</t>
   </si>
   <si>
     <t>Iternet LAN(ETB: 15Megas):$85900anuales X 3 años</t>
+  </si>
+  <si>
+    <t>Multitoma forza 6 tomas</t>
+  </si>
+  <si>
+    <t>cantidad de meses trabajando</t>
+  </si>
+  <si>
+    <t>Total Hardware desarrollo</t>
+  </si>
+  <si>
+    <t>Total Software desarrollo</t>
+  </si>
+  <si>
+    <t>Total costos</t>
+  </si>
+  <si>
+    <t>Sueldo total Trabajadores</t>
+  </si>
+  <si>
+    <t>PC all in one Hp</t>
+  </si>
+  <si>
+    <t>Sueldo unitario por día sin auxilios</t>
+  </si>
+  <si>
+    <t>Sueldo unitario por semana sin auxilios</t>
+  </si>
+  <si>
+    <t>Sueldo unitario por mes sin auxilios</t>
   </si>
 </sst>
 </file>
@@ -344,9 +323,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -429,7 +408,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -683,14 +662,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -714,85 +721,85 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="8" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="3" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="3" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -804,19 +811,25 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1421,7 +1434,7 @@
       <font>
         <b/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="166" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1496,7 +1509,7 @@
       <font>
         <b/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="166" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1616,7 +1629,7 @@
       <font>
         <b/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="166" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1689,7 +1702,7 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="166" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <fill>
@@ -1714,7 +1727,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="166" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <fill>
@@ -1739,7 +1752,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="166" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <fill>
@@ -1764,7 +1777,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
     </dxf>
     <dxf>
       <fill>
@@ -1789,7 +1802,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
     </dxf>
     <dxf>
       <fill>
@@ -1814,7 +1827,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
     </dxf>
     <dxf>
       <fill>
@@ -2181,7 +2194,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="166" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2206,7 +2219,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="166" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2615,30 +2628,21 @@
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>NetBeans 8.2</c:v>
+                  <c:v>MySql Workbench 8.0 CE</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>jdk-8u201-windows-x64/32</c:v>
+                  <c:v>Wampp/Xampp (MariaDB/MySql)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Java(actualizado)</c:v>
+                  <c:v>PHP-html(editores texto plano)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Wampp/Xampp (MariaDB/MySql)</c:v>
+                  <c:v>Windows 10 Pro for Workstations (de por vida)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>MySql Workbench 8.0 CE</c:v>
+                  <c:v>Visual paradigm (licencia educativa sena)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>PHP-html(editores texto plano)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Windows 10 Pro for Workstations (de por vida)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Visual paradigm (licencia educativa sena)</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>Iternet LAN(ETB: 15Megas):$85900anuales X 3 años</c:v>
                 </c:pt>
               </c:strCache>
@@ -2667,22 +2671,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1099999</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>357700</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>1099999</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>8310822.2999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>357700</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -2840,6 +2844,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2967,7 +2972,7 @@
             <c:numRef>
               <c:f>Aproximados!$D$2:$F$2</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:formatCode>"$"\ #,##0.00;[Red]\-"$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>6552000</c:v>
@@ -3072,7 +3077,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)" sourceLinked="1"/>
+        <c:numFmt formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3210,10 +3215,7 @@
               </c:extLst>
               <c:f>'Sueldo de los trabajadores '!$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TOTAL SUELDO DE TODOS</c:v>
-                </c:pt>
+                <c:ptCount val="0"/>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -3228,10 +3230,10 @@
               </c:extLst>
               <c:f>'Sueldo de los trabajadores '!$L$7</c:f>
               <c:numCache>
-                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-"$"\ * #,##0.00_-;\-"$"\ * #,##0.00_-;_-"$"\ * "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16170</c:v>
+                  <c:v>8085</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3251,7 +3253,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sueldo unitario por dia sin auxilios</c:v>
+                  <c:v>Sueldo unitario por día sin auxilios</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3279,10 +3281,7 @@
               </c:extLst>
               <c:f>'Sueldo de los trabajadores '!$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TOTAL SUELDO DE TODOS</c:v>
-                </c:pt>
+                <c:ptCount val="0"/>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -3297,10 +3296,10 @@
               </c:extLst>
               <c:f>'Sueldo de los trabajadores '!$M$7</c:f>
               <c:numCache>
-                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-"$"\ * #,##0.00_-;\-"$"\ * #,##0.00_-;_-"$"\ * "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>80850</c:v>
+                  <c:v>40425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3320,7 +3319,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Suledo unitario por semana sin auxilios</c:v>
+                  <c:v>Sueldo unitario por semana sin auxilios</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3349,10 +3348,7 @@
               </c:extLst>
               <c:f>'Sueldo de los trabajadores '!$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TOTAL SUELDO DE TODOS</c:v>
-                </c:pt>
+                <c:ptCount val="0"/>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -3367,10 +3363,10 @@
               </c:extLst>
               <c:f>'Sueldo de los trabajadores '!$N$7</c:f>
               <c:numCache>
-                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-"$"\ * #,##0.00_-;\-"$"\ * #,##0.00_-;_-"$"\ * "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>242550</c:v>
+                  <c:v>121275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3390,7 +3386,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Suledo unitario por mes sin auxilios</c:v>
+                  <c:v>Sueldo unitario por mes sin auxilios</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3419,10 +3415,7 @@
               </c:extLst>
               <c:f>'Sueldo de los trabajadores '!$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TOTAL SUELDO DE TODOS</c:v>
-                </c:pt>
+                <c:ptCount val="0"/>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -3437,10 +3430,10 @@
               </c:extLst>
               <c:f>'Sueldo de los trabajadores '!$O$7</c:f>
               <c:numCache>
-                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-"$"\ * #,##0.00_-;\-"$"\ * #,##0.00_-;_-"$"\ * "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>970200</c:v>
+                  <c:v>485100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3489,10 +3482,7 @@
               </c:extLst>
               <c:f>'Sueldo de los trabajadores '!$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TOTAL SUELDO DE TODOS</c:v>
-                </c:pt>
+                <c:ptCount val="0"/>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -3507,10 +3497,10 @@
               </c:extLst>
               <c:f>'Sueldo de los trabajadores '!$P$7</c:f>
               <c:numCache>
-                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-"$"\ * #,##0.00_-;\-"$"\ * #,##0.00_-;_-"$"\ * "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>11642400</c:v>
+                  <c:v>1164240</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3559,10 +3549,7 @@
               </c:extLst>
               <c:f>'Sueldo de los trabajadores '!$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TOTAL SUELDO DE TODOS</c:v>
-                </c:pt>
+                <c:ptCount val="0"/>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -3577,10 +3564,10 @@
               </c:extLst>
               <c:f>'Sueldo de los trabajadores '!$Q$7</c:f>
               <c:numCache>
-                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-"$"\ * #,##0.00_-;\-"$"\ * #,##0.00_-;_-"$"\ * "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>12751237</c:v>
+                  <c:v>2273077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3648,10 +3635,7 @@
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>TOTAL SUELDO DE TODOS</c:v>
-                      </c:pt>
+                      <c:ptCount val="0"/>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
@@ -3724,10 +3708,7 @@
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>TOTAL SUELDO DE TODOS</c:v>
-                      </c:pt>
+                      <c:ptCount val="0"/>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
@@ -3800,10 +3781,7 @@
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>TOTAL SUELDO DE TODOS</c:v>
-                      </c:pt>
+                      <c:ptCount val="0"/>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
@@ -3876,10 +3854,7 @@
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>TOTAL SUELDO DE TODOS</c:v>
-                      </c:pt>
+                      <c:ptCount val="0"/>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
@@ -3952,10 +3927,7 @@
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>TOTAL SUELDO DE TODOS</c:v>
-                      </c:pt>
+                      <c:ptCount val="0"/>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
@@ -4028,10 +4000,7 @@
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>TOTAL SUELDO DE TODOS</c:v>
-                      </c:pt>
+                      <c:ptCount val="0"/>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
@@ -4106,10 +4075,7 @@
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>TOTAL SUELDO DE TODOS</c:v>
-                      </c:pt>
+                      <c:ptCount val="0"/>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
@@ -4184,10 +4150,7 @@
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>TOTAL SUELDO DE TODOS</c:v>
-                      </c:pt>
+                      <c:ptCount val="0"/>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
@@ -4232,7 +4195,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>cantidad de años trabajando</c:v>
+                        <c:v>cantidad de meses trabajando</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -4262,10 +4225,7 @@
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>TOTAL SUELDO DE TODOS</c:v>
-                      </c:pt>
+                      <c:ptCount val="0"/>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
@@ -4340,10 +4300,7 @@
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>TOTAL SUELDO DE TODOS</c:v>
-                      </c:pt>
+                      <c:ptCount val="0"/>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
@@ -4362,6 +4319,9 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -4447,7 +4407,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4698,13 +4658,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>total, Equipo(PC) ois</c:v>
+                  <c:v>Total Hardware desarrollo</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Hosting costo aproximadoentre máximo y mínimo</c:v>
+                  <c:v>Total Software desarrollo</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Costo total del proyecto</c:v>
+                  <c:v>Sueldo total Trabajadores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4713,16 +4673,16 @@
             <c:numRef>
               <c:f>'Costos totales'!$B$2:$D$2</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:formatCode>"$"\ #,##0.00;[Red]\-"$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1964500</c:v>
+                  <c:v>925600</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5341500</c:v>
+                  <c:v>1457699</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7306000</c:v>
+                  <c:v>2273077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4818,7 +4778,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)" sourceLinked="1"/>
+        <c:numFmt formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4984,10 +4944,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Portátil Lenovo
-Tarjeta madre
-Disco Duro 2T
-CPU</c:v>
+                  <c:v>PC all in one Hp</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5017,10 +4974,10 @@
             <c:numRef>
               <c:f>Hardware!$B$2</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:formatCode>"$"\ #,##0.00;[Red]\-"$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>999900</c:v>
+                  <c:v>849000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5040,7 +4997,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mouse                                                                                              </c:v>
+                  <c:v>Multitoma forza 6 tomas</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5070,10 +5027,10 @@
             <c:numRef>
               <c:f>Hardware!$B$3</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:formatCode>"$"\ #,##0.00;[Red]\-"$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32900</c:v>
+                  <c:v>16900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5093,7 +5050,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Regulador de voltaje</c:v>
+                  <c:v>USB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5123,10 +5080,10 @@
             <c:numRef>
               <c:f>Hardware!$B$4</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:formatCode>"$"\ #,##0.00;[Red]\-"$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>36900</c:v>
+                  <c:v>19900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5145,9 +5102,6 @@
               <c:f>Hardware!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>USB</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -5176,10 +5130,10 @@
             <c:numRef>
               <c:f>Hardware!$B$5</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:formatCode>"$"\ #,##0.00;[Red]\-"$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>19900</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5198,9 +5152,6 @@
               <c:f>Hardware!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Impresora CANNON </c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -5229,10 +5180,10 @@
             <c:numRef>
               <c:f>Hardware!$B$6</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:formatCode>"$"\ #,##0.00;[Red]\-"$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>149900</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5251,9 +5202,6 @@
               <c:f>Hardware!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Equpo Sistema OIS</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -5282,10 +5230,10 @@
             <c:numRef>
               <c:f>Hardware!$B$7</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:formatCode>"$"\ #,##0.00;[Red]\-"$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1962500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5337,10 +5285,10 @@
             <c:numRef>
               <c:f>Hardware!$B$8</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:formatCode>"$"\ #,##0.00;[Red]\-"$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3202000</c:v>
+                  <c:v>885800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5436,7 +5384,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)" sourceLinked="1"/>
+        <c:numFmt formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5643,7 +5591,7 @@
             <c:numRef>
               <c:f>(Hosting!$B$2,Hosting!$D$2)</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:formatCode>"$"\ #,##0.00;[Red]\-"$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>114750</c:v>
@@ -5705,7 +5653,7 @@
             <c:numRef>
               <c:f>(Hosting!$B$3,Hosting!$D$3)</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:formatCode>"$"\ #,##0.00;[Red]\-"$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>182000</c:v>
@@ -5807,7 +5755,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)" sourceLinked="1"/>
+        <c:numFmt formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6039,7 +5987,7 @@
             <c:numRef>
               <c:f>'Equipo sistema OIS'!$D$2:$E$2</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:formatCode>"$"\ #,##0.00;[Red]\-"$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>6288000</c:v>
@@ -6101,7 +6049,7 @@
             <c:numRef>
               <c:f>'Equipo sistema OIS'!$D$3:$E$3</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:formatCode>"$"\ #,##0.00;[Red]\-"$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>3769998</c:v>
@@ -6203,7 +6151,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)" sourceLinked="1"/>
+        <c:numFmt formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6481,7 +6429,7 @@
             <c:numRef>
               <c:f>Aproximados!$A$2:$C$2</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:formatCode>"$"\ #,##0.00;[Red]\-"$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3144000</c:v>
@@ -6743,7 +6691,7 @@
             <c:numRef>
               <c:f>Aproximados!$A$2:$C$2</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:formatCode>"$"\ #,##0.00;[Red]\-"$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3144000</c:v>
@@ -6847,7 +6795,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)" sourceLinked="1"/>
+        <c:numFmt formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7081,7 +7029,7 @@
             <c:numRef>
               <c:f>Aproximados!$A$2:$C$2</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:formatCode>"$"\ #,##0.00;[Red]\-"$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3144000</c:v>
@@ -7186,7 +7134,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)" sourceLinked="1"/>
+        <c:numFmt formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7309,6 +7257,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7417,7 +7366,7 @@
             <c:numRef>
               <c:f>Aproximados!$D$2:$F$2</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:formatCode>"$"\ #,##0.00;[Red]\-"$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>6552000</c:v>
@@ -7521,7 +7470,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)" sourceLinked="1"/>
+        <c:numFmt formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7760,7 +7709,7 @@
             <c:numRef>
               <c:f>Aproximados!$D$2:$F$2</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:formatCode>"$"\ #,##0.00;[Red]\-"$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>6552000</c:v>
@@ -15045,12 +14994,12 @@
     <tableColumn id="7" name="horas trabajadas al mes" dataDxfId="20"/>
     <tableColumn id="8" name="Días trabajados al año" dataDxfId="19"/>
     <tableColumn id="9" name="horas trabajadas al año" dataDxfId="18"/>
-    <tableColumn id="10" name="cantidad de años trabajando" dataDxfId="17"/>
+    <tableColumn id="10" name="cantidad de meses trabajando" dataDxfId="17"/>
     <tableColumn id="11" name="tiempo total trabajado en horas" dataDxfId="16"/>
     <tableColumn id="12" name="Sueldo unitario por hora sin auxilios" dataDxfId="15" dataCellStyle="Moneda"/>
-    <tableColumn id="13" name="Sueldo unitario por dia sin auxilios" dataDxfId="14" dataCellStyle="Moneda"/>
-    <tableColumn id="14" name="Suledo unitario por semana sin auxilios" dataDxfId="13" dataCellStyle="Moneda"/>
-    <tableColumn id="15" name="Suledo unitario por mes sin auxilios" dataDxfId="12" dataCellStyle="Moneda"/>
+    <tableColumn id="13" name="Sueldo unitario por día sin auxilios" dataDxfId="14" dataCellStyle="Moneda"/>
+    <tableColumn id="14" name="Sueldo unitario por semana sin auxilios" dataDxfId="13" dataCellStyle="Moneda"/>
+    <tableColumn id="15" name="Sueldo unitario por mes sin auxilios" dataDxfId="12" dataCellStyle="Moneda"/>
     <tableColumn id="16" name="Sueldo unitario de año sin auxilios" dataDxfId="11" dataCellStyle="Moneda"/>
     <tableColumn id="17" name="Sueldo unitario por año con auxilios" dataDxfId="10" dataCellStyle="Moneda"/>
   </tableColumns>
@@ -15063,17 +15012,17 @@
   <autoFilter ref="A1:E2"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Costos totales" dataDxfId="4"/>
-    <tableColumn id="2" name="total, Equipo(PC) ois" dataDxfId="3">
-      <calculatedColumnFormula>Tabla8[costo aproximado equipo por unidad]</calculatedColumnFormula>
+    <tableColumn id="2" name="Total Hardware desarrollo" dataDxfId="3">
+      <calculatedColumnFormula>Hardware!D8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Hosting costo aproximadoentre máximo y mínimo" dataDxfId="2">
-      <calculatedColumnFormula>Tabla8[[#This Row],[costo aproximado hosting]]</calculatedColumnFormula>
+    <tableColumn id="3" name="Total Software desarrollo" dataDxfId="2">
+      <calculatedColumnFormula>Software!D13</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Costo total del proyecto" dataDxfId="1">
-      <calculatedColumnFormula>SUM(Tabla12[total, Equipo(PC) ois]+Tabla12[Hosting costo aproximadoentre máximo y mínimo])</calculatedColumnFormula>
+    <tableColumn id="4" name="Sueldo total Trabajadores" dataDxfId="1">
+      <calculatedColumnFormula>'Sueldo de los trabajadores '!Q7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Inversion en la vida util de 3 años minimo" dataDxfId="0">
-      <calculatedColumnFormula>(Tabla12[Costo total del proyecto])/3</calculatedColumnFormula>
+    <tableColumn id="5" name="Total costos" dataDxfId="0">
+      <calculatedColumnFormula>Tabla12[Total Hardware desarrollo]+Tabla12[Total Software desarrollo]+Tabla12[Sueldo total Trabajadores]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -15379,8 +15328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15393,21 +15342,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="51"/>
       <c r="C2" s="20">
@@ -15420,7 +15369,7 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="51"/>
       <c r="C3" s="20">
@@ -15446,22 +15395,26 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="51"/>
+        <v>14</v>
+      </c>
+      <c r="B5" s="51">
+        <v>1099999</v>
+      </c>
       <c r="C5" s="20">
         <v>13</v>
       </c>
       <c r="D5" s="38">
         <f>Tabla9[[#This Row],[Costo unitario]]</f>
-        <v>0</v>
+        <v>1099999</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="51"/>
+        <v>13</v>
+      </c>
+      <c r="B6" s="51">
+        <v>0</v>
+      </c>
       <c r="C6" s="20">
         <v>12</v>
       </c>
@@ -15472,60 +15425,50 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="51"/>
+        <v>81</v>
+      </c>
+      <c r="B7" s="51">
+        <v>357700</v>
+      </c>
       <c r="C7" s="20">
         <v>13</v>
       </c>
       <c r="D7" s="38">
         <f>Tabla9[[#This Row],[Costo unitario]]</f>
-        <v>0</v>
+        <v>357700</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="51">
-        <v>1099999</v>
-      </c>
+      <c r="A8" s="11"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="20">
         <v>36</v>
       </c>
       <c r="D8" s="38">
         <f>Tabla9[[#This Row],[Costo unitario]]</f>
-        <v>1099999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="51">
-        <v>8310822.2999999998</v>
-      </c>
+      <c r="A9" s="11"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="20">
         <v>13</v>
       </c>
       <c r="D9" s="38">
         <f>Tabla9[[#This Row],[Costo unitario]]</f>
-        <v>8310822.2999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="51">
-        <v>357700</v>
-      </c>
+      <c r="A10" s="11"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="20">
         <v>36</v>
       </c>
       <c r="D10" s="38">
         <f>Tabla9[[#This Row],[Costo unitario]]</f>
-        <v>357700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15548,16 +15491,16 @@
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B13" s="52">
         <f>SUM(B2:B12)</f>
-        <v>9768521.3000000007</v>
+        <v>1457699</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="38">
         <f>SUM(D2:D12)</f>
-        <v>9768521.3000000007</v>
+        <v>1457699</v>
       </c>
     </row>
   </sheetData>
@@ -15574,132 +15517,127 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="B2" s="16">
-        <v>999900</v>
+        <v>849000</v>
       </c>
       <c r="C2" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" s="18">
         <f>Tabla10[[#This Row],[Costo unitario]]*Tabla10[[#This Row],[Cantidad]]</f>
-        <v>3999600</v>
+        <v>849000</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="B3" s="19">
-        <v>32900</v>
+        <v>16900</v>
       </c>
       <c r="C3" s="20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3" s="18">
         <f>Tabla10[[#This Row],[Costo unitario]]*Tabla10[[#This Row],[Cantidad]]</f>
-        <v>131600</v>
+        <v>16900</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B4" s="19">
-        <v>36900</v>
+        <v>19900</v>
       </c>
       <c r="C4" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="18">
         <f>Tabla10[[#This Row],[Costo unitario]]*Tabla10[[#This Row],[Cantidad]]</f>
-        <v>36900</v>
+        <v>59700</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="A5" s="5"/>
       <c r="B5" s="19">
-        <v>19900</v>
+        <v>0</v>
       </c>
       <c r="C5" s="20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5" s="18">
         <f>Tabla10[[#This Row],[Costo unitario]]*Tabla10[[#This Row],[Cantidad]]</f>
-        <v>59700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="A6" s="5"/>
       <c r="B6" s="19">
-        <v>149900</v>
+        <v>0</v>
       </c>
       <c r="C6" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="18">
         <f>Tabla10[[#This Row],[Costo unitario]]*Tabla10[[#This Row],[Cantidad]]</f>
-        <v>149900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="A7" s="5"/>
       <c r="B7" s="19">
-        <v>1962500</v>
+        <v>0</v>
       </c>
       <c r="C7" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="18">
         <f>Tabla10[[#This Row],[Costo unitario]]*Tabla10[[#This Row],[Cantidad]]</f>
-        <v>1962500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B8" s="21">
-        <v>3202000</v>
+        <f>SUM(B2:B7)</f>
+        <v>885800</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="18">
         <f>SUM(D2:D7)</f>
-        <v>6340200</v>
+        <v>925600</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -15720,7 +15658,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15750,7 +15688,7 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B2" s="16">
         <v>114750</v>
@@ -15768,7 +15706,7 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B3" s="21">
         <v>182000</v>
@@ -15798,7 +15736,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15816,16 +15754,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>6</v>
@@ -15833,13 +15771,13 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B2" s="39">
         <v>3144000</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D2" s="41">
         <v>6288000</v>
@@ -15848,18 +15786,18 @@
         <v>3144000</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B3" s="43">
         <v>785000</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D3" s="45">
         <v>3769998</v>
@@ -15900,22 +15838,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C1" s="50" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D1" s="50" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E1" s="50" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F1" s="50" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -15981,15 +15919,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B2" s="28">
         <v>4323</v>
@@ -15997,7 +15935,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B3" s="28">
         <v>8646</v>
@@ -16005,7 +15943,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B4" s="28">
         <v>20173</v>
@@ -16013,7 +15951,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B5" s="28">
         <v>36023</v>
@@ -16021,7 +15959,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B6" s="28">
         <v>57637</v>
@@ -16029,7 +15967,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B7" s="28">
         <f>(B2+B3+B4+B5+B6)/5</f>
@@ -16064,33 +16002,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B2" s="28">
         <v>97032</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E2" s="31">
         <f>Tabla4[[#This Row],[Costos de auxilio por persona mensual]]</f>
@@ -16099,16 +16037,16 @@
     </row>
     <row r="3" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B3" s="28">
         <v>103515</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E3" s="31">
         <v>33125</v>
@@ -16116,16 +16054,16 @@
     </row>
     <row r="4" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B4" s="28">
         <v>132499</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E4" s="31">
         <v>33125</v>
@@ -16133,16 +16071,16 @@
     </row>
     <row r="5" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B5" s="28">
         <v>33125</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E5" s="31">
         <f>B5</f>
@@ -16151,17 +16089,17 @@
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B6" s="28">
         <f>Riesgos!B7</f>
         <v>25360.400000000001</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E6" s="31">
         <f>B6</f>
@@ -16170,7 +16108,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" s="33">
         <f>SUM(B2:B6)</f>
@@ -16195,8 +16133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="P16" activeCellId="1" sqref="Q6 P16"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16220,62 +16158,62 @@
     <col min="17" max="17" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J1" s="27" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="K1" s="27" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="L1" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="M1" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="N1" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="O1" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="N1" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="O1" s="27" t="s">
-        <v>92</v>
-      </c>
       <c r="P1" s="27" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="Q1" s="25" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B2" s="30">
         <v>1</v>
@@ -16298,46 +16236,46 @@
         <v>60</v>
       </c>
       <c r="H2" s="30">
-        <v>144</v>
+        <v>28.8</v>
       </c>
       <c r="I2" s="30">
         <f>Tabla5[[#This Row],[Días trabajados al año]]*Tabla5[[#This Row],[horas diarias aproximadas]]</f>
-        <v>720</v>
+        <v>144</v>
       </c>
       <c r="J2" s="30">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="K2" s="30">
-        <f>Tabla5[[#This Row],[horas trabajadas al año]]*Tabla5[[#This Row],[cantidad de años trabajando]]</f>
-        <v>720</v>
+        <f>Tabla5[[#This Row],[horas trabajadas al mes]]*Tabla5[[#This Row],[cantidad de meses trabajando]]</f>
+        <v>144</v>
       </c>
       <c r="L2" s="55">
-        <v>3234</v>
+        <v>1617</v>
       </c>
       <c r="M2" s="55">
         <f>L2*C2</f>
-        <v>16170</v>
+        <v>8085</v>
       </c>
       <c r="N2" s="55">
         <f>L2*E2</f>
-        <v>48510</v>
+        <v>24255</v>
       </c>
       <c r="O2" s="55">
         <f>L2*G2</f>
-        <v>194040</v>
+        <v>97020</v>
       </c>
       <c r="P2" s="55">
         <f>L2*I2</f>
-        <v>2328480</v>
+        <v>232848</v>
       </c>
       <c r="Q2" s="56">
         <f>P2+Auxilios!E7</f>
-        <v>2550247.4</v>
+        <v>454615.4</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B3" s="30">
         <v>1</v>
@@ -16360,46 +16298,46 @@
         <v>60</v>
       </c>
       <c r="H3" s="30">
-        <v>144</v>
+        <v>28.8</v>
       </c>
       <c r="I3" s="30">
         <f>Tabla5[[#This Row],[Días trabajados al año]]*Tabla5[[#This Row],[horas diarias aproximadas]]</f>
-        <v>720</v>
+        <v>144</v>
       </c>
       <c r="J3" s="30">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="K3" s="30">
-        <f>Tabla5[[#This Row],[horas trabajadas al año]]*Tabla5[[#This Row],[cantidad de años trabajando]]</f>
-        <v>720</v>
+        <f>Tabla5[[#This Row],[horas trabajadas al mes]]*Tabla5[[#This Row],[cantidad de meses trabajando]]</f>
+        <v>144</v>
       </c>
       <c r="L3" s="55">
-        <v>3234</v>
+        <v>1617</v>
       </c>
       <c r="M3" s="55">
         <f t="shared" ref="M3:M6" si="0">L3*C3</f>
-        <v>16170</v>
+        <v>8085</v>
       </c>
       <c r="N3" s="55">
         <f t="shared" ref="N3:N6" si="1">L3*E3</f>
-        <v>48510</v>
+        <v>24255</v>
       </c>
       <c r="O3" s="55">
         <f t="shared" ref="O3:O6" si="2">L3*G3</f>
-        <v>194040</v>
+        <v>97020</v>
       </c>
       <c r="P3" s="55">
         <f t="shared" ref="P3:P6" si="3">L3*I3</f>
-        <v>2328480</v>
+        <v>232848</v>
       </c>
       <c r="Q3" s="56">
         <f>P3+Auxilios!E7</f>
-        <v>2550247.4</v>
+        <v>454615.4</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B4" s="30">
         <v>1</v>
@@ -16422,46 +16360,46 @@
         <v>60</v>
       </c>
       <c r="H4" s="30">
-        <v>144</v>
+        <v>28.8</v>
       </c>
       <c r="I4" s="30">
         <f>Tabla5[[#This Row],[Días trabajados al año]]*Tabla5[[#This Row],[horas diarias aproximadas]]</f>
-        <v>720</v>
+        <v>144</v>
       </c>
       <c r="J4" s="30">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="K4" s="30">
-        <f>Tabla5[[#This Row],[horas trabajadas al año]]*Tabla5[[#This Row],[cantidad de años trabajando]]</f>
-        <v>720</v>
+        <f>Tabla5[[#This Row],[horas trabajadas al mes]]*Tabla5[[#This Row],[cantidad de meses trabajando]]</f>
+        <v>144</v>
       </c>
       <c r="L4" s="55">
-        <v>3234</v>
+        <v>1617</v>
       </c>
       <c r="M4" s="55">
         <f t="shared" si="0"/>
-        <v>16170</v>
+        <v>8085</v>
       </c>
       <c r="N4" s="55">
         <f t="shared" si="1"/>
-        <v>48510</v>
+        <v>24255</v>
       </c>
       <c r="O4" s="55">
         <f t="shared" si="2"/>
-        <v>194040</v>
+        <v>97020</v>
       </c>
       <c r="P4" s="55">
         <f t="shared" si="3"/>
-        <v>2328480</v>
+        <v>232848</v>
       </c>
       <c r="Q4" s="56">
         <f>P4+Auxilios!E7</f>
-        <v>2550247.4</v>
+        <v>454615.4</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B5" s="30">
         <v>1</v>
@@ -16484,46 +16422,46 @@
         <v>60</v>
       </c>
       <c r="H5" s="30">
-        <v>144</v>
+        <v>28.8</v>
       </c>
       <c r="I5" s="30">
         <f>Tabla5[[#This Row],[Días trabajados al año]]*Tabla5[[#This Row],[horas diarias aproximadas]]</f>
-        <v>720</v>
+        <v>144</v>
       </c>
       <c r="J5" s="30">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="K5" s="30">
-        <f>Tabla5[[#This Row],[horas trabajadas al año]]*Tabla5[[#This Row],[cantidad de años trabajando]]</f>
-        <v>720</v>
+        <f>Tabla5[[#This Row],[horas trabajadas al mes]]*Tabla5[[#This Row],[cantidad de meses trabajando]]</f>
+        <v>144</v>
       </c>
       <c r="L5" s="55">
-        <v>3234</v>
+        <v>1617</v>
       </c>
       <c r="M5" s="55">
         <f t="shared" si="0"/>
-        <v>16170</v>
+        <v>8085</v>
       </c>
       <c r="N5" s="55">
         <f t="shared" si="1"/>
-        <v>48510</v>
+        <v>24255</v>
       </c>
       <c r="O5" s="55">
         <f t="shared" si="2"/>
-        <v>194040</v>
+        <v>97020</v>
       </c>
       <c r="P5" s="55">
         <f t="shared" si="3"/>
-        <v>2328480</v>
+        <v>232848</v>
       </c>
       <c r="Q5" s="56">
         <f>P5+Auxilios!E7</f>
-        <v>2550247.4</v>
+        <v>454615.4</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B6" s="30">
         <v>1</v>
@@ -16546,47 +16484,45 @@
         <v>60</v>
       </c>
       <c r="H6" s="30">
-        <v>144</v>
+        <v>28.8</v>
       </c>
       <c r="I6" s="30">
         <f>Tabla5[[#This Row],[Días trabajados al año]]*Tabla5[[#This Row],[horas diarias aproximadas]]</f>
-        <v>720</v>
+        <v>144</v>
       </c>
       <c r="J6" s="30">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="K6" s="30">
-        <f>Tabla5[[#This Row],[horas trabajadas al año]]*Tabla5[[#This Row],[cantidad de años trabajando]]</f>
-        <v>720</v>
+        <f>Tabla5[[#This Row],[horas trabajadas al mes]]*Tabla5[[#This Row],[cantidad de meses trabajando]]</f>
+        <v>144</v>
       </c>
       <c r="L6" s="55">
-        <v>3234</v>
+        <v>1617</v>
       </c>
       <c r="M6" s="55">
         <f t="shared" si="0"/>
-        <v>16170</v>
+        <v>8085</v>
       </c>
       <c r="N6" s="55">
         <f t="shared" si="1"/>
-        <v>48510</v>
+        <v>24255</v>
       </c>
       <c r="O6" s="55">
         <f t="shared" si="2"/>
-        <v>194040</v>
+        <v>97020</v>
       </c>
       <c r="P6" s="55">
         <f t="shared" si="3"/>
-        <v>2328480</v>
+        <v>232848</v>
       </c>
       <c r="Q6" s="56">
         <f>P6+Auxilios!E7</f>
-        <v>2550247.4</v>
+        <v>454615.4</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="54" t="s">
-        <v>96</v>
-      </c>
+      <c r="A7" s="59"/>
       <c r="B7" s="59"/>
       <c r="C7" s="59"/>
       <c r="D7" s="59"/>
@@ -16596,30 +16532,32 @@
       <c r="H7" s="59"/>
       <c r="I7" s="59"/>
       <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
+      <c r="K7" s="54" t="s">
+        <v>80</v>
+      </c>
       <c r="L7" s="57">
         <f t="shared" ref="L7:Q7" si="4">SUM(L2:L6)</f>
-        <v>16170</v>
+        <v>8085</v>
       </c>
       <c r="M7" s="57">
         <f t="shared" si="4"/>
-        <v>80850</v>
+        <v>40425</v>
       </c>
       <c r="N7" s="57">
         <f t="shared" si="4"/>
-        <v>242550</v>
+        <v>121275</v>
       </c>
       <c r="O7" s="57">
         <f t="shared" si="4"/>
-        <v>970200</v>
+        <v>485100</v>
       </c>
       <c r="P7" s="57">
         <f t="shared" si="4"/>
-        <v>11642400</v>
+        <v>1164240</v>
       </c>
       <c r="Q7" s="58">
         <f t="shared" si="4"/>
-        <v>12751237</v>
+        <v>2273077</v>
       </c>
     </row>
   </sheetData>
@@ -16636,8 +16574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16651,40 +16589,40 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>87</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B2" s="13">
-        <f>Tabla8[costo aproximado equipo por unidad]</f>
-        <v>1964500</v>
+        <f>Hardware!D8</f>
+        <v>925600</v>
       </c>
       <c r="C2" s="13">
-        <f>Tabla8[[#This Row],[costo aproximado hosting]]</f>
-        <v>5341500</v>
+        <f>Software!D13</f>
+        <v>1457699</v>
       </c>
       <c r="D2" s="13">
-        <f>SUM(Tabla12[total, Equipo(PC) ois]+Tabla12[Hosting costo aproximadoentre máximo y mínimo])</f>
-        <v>7306000</v>
+        <f>'Sueldo de los trabajadores '!Q7</f>
+        <v>2273077</v>
       </c>
       <c r="E2" s="14">
-        <f>(Tabla12[Costo total del proyecto])/3</f>
-        <v>2435333.3333333335</v>
+        <f>Tabla12[Total Hardware desarrollo]+Tabla12[Total Software desarrollo]+Tabla12[Sueldo total Trabajadores]</f>
+        <v>4656376</v>
       </c>
     </row>
   </sheetData>
